--- a/Experiment/Orders/PAR04_RUN08.xlsx
+++ b/Experiment/Orders/PAR04_RUN08.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="2830" uniqueCount="885">
   <si>
     <t>Trial</t>
   </si>
@@ -2673,7 +2673,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -2712,8 +2712,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L282"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="true"/>
@@ -2773,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>2</v>
+        <v>847</v>
       </c>
       <c r="C2" s="0">
         <v>16</v>
@@ -2781,7 +2784,7 @@
       <c r="D2" s="0"/>
       <c r="E2" s="0"/>
       <c r="F2" s="0" t="s">
-        <v>567</v>
+        <v>847</v>
       </c>
       <c r="G2" s="0" t="b">
         <v>0</v>
@@ -2801,19 +2804,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>3</v>
+        <v>239</v>
       </c>
       <c r="C3" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>285</v>
+        <v>542</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>426</v>
+        <v>542</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>568</v>
+        <v>846</v>
       </c>
       <c r="G3" s="0" t="b">
         <v>0</v>
@@ -2823,13 +2826,13 @@
         <v>851</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>853</v>
+        <v>861</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>864</v>
+        <v>880</v>
       </c>
       <c r="L3" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2837,7 +2840,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>847</v>
       </c>
       <c r="C4" s="0">
         <v>0.32500000000000001</v>
@@ -2845,7 +2848,7 @@
       <c r="D4" s="0"/>
       <c r="E4" s="0"/>
       <c r="F4" s="0" t="s">
-        <v>569</v>
+        <v>847</v>
       </c>
       <c r="G4" s="0" t="b">
         <v>0</v>
@@ -2865,19 +2868,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>5</v>
+        <v>239</v>
       </c>
       <c r="C5" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>286</v>
+        <v>468</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>427</v>
+        <v>468</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>570</v>
+        <v>846</v>
       </c>
       <c r="G5" s="0" t="b">
         <v>0</v>
@@ -2887,13 +2890,13 @@
         <v>851</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>853</v>
+        <v>861</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>864</v>
+        <v>880</v>
       </c>
       <c r="L5" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -2901,7 +2904,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>6</v>
+        <v>847</v>
       </c>
       <c r="C6" s="0">
         <v>0.32500000000000001</v>
@@ -2909,7 +2912,7 @@
       <c r="D6" s="0"/>
       <c r="E6" s="0"/>
       <c r="F6" s="0" t="s">
-        <v>571</v>
+        <v>847</v>
       </c>
       <c r="G6" s="0" t="b">
         <v>0</v>
@@ -2929,19 +2932,19 @@
         <v>1</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>7</v>
+        <v>239</v>
       </c>
       <c r="C7" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>287</v>
+        <v>539</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>428</v>
+        <v>539</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>572</v>
+        <v>846</v>
       </c>
       <c r="G7" s="0" t="b">
         <v>0</v>
@@ -2951,13 +2954,13 @@
         <v>851</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>853</v>
+        <v>861</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>864</v>
+        <v>880</v>
       </c>
       <c r="L7" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -2965,7 +2968,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>8</v>
+        <v>847</v>
       </c>
       <c r="C8" s="0">
         <v>0.32500000000000001</v>
@@ -2973,7 +2976,7 @@
       <c r="D8" s="0"/>
       <c r="E8" s="0"/>
       <c r="F8" s="0" t="s">
-        <v>573</v>
+        <v>847</v>
       </c>
       <c r="G8" s="0" t="b">
         <v>0</v>
@@ -2993,19 +2996,19 @@
         <v>1</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>9</v>
+        <v>239</v>
       </c>
       <c r="C9" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>288</v>
+        <v>470</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>429</v>
+        <v>470</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>574</v>
+        <v>846</v>
       </c>
       <c r="G9" s="0" t="b">
         <v>0</v>
@@ -3015,13 +3018,13 @@
         <v>851</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>853</v>
+        <v>861</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>864</v>
+        <v>880</v>
       </c>
       <c r="L9" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -3029,7 +3032,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>10</v>
+        <v>847</v>
       </c>
       <c r="C10" s="0">
         <v>0.32500000000000001</v>
@@ -3037,7 +3040,7 @@
       <c r="D10" s="0"/>
       <c r="E10" s="0"/>
       <c r="F10" s="0" t="s">
-        <v>575</v>
+        <v>847</v>
       </c>
       <c r="G10" s="0" t="b">
         <v>0</v>
@@ -3057,19 +3060,19 @@
         <v>1</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>11</v>
+        <v>239</v>
       </c>
       <c r="C11" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>289</v>
+        <v>540</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>430</v>
+        <v>540</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>576</v>
+        <v>846</v>
       </c>
       <c r="G11" s="0" t="b">
         <v>0</v>
@@ -3079,13 +3082,13 @@
         <v>851</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>853</v>
+        <v>861</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>864</v>
+        <v>880</v>
       </c>
       <c r="L11" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -3093,7 +3096,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>12</v>
+        <v>847</v>
       </c>
       <c r="C12" s="0">
         <v>0.32500000000000001</v>
@@ -3101,7 +3104,7 @@
       <c r="D12" s="0"/>
       <c r="E12" s="0"/>
       <c r="F12" s="0" t="s">
-        <v>577</v>
+        <v>847</v>
       </c>
       <c r="G12" s="0" t="b">
         <v>0</v>
@@ -3121,19 +3124,19 @@
         <v>1</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>13</v>
+        <v>239</v>
       </c>
       <c r="C13" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>290</v>
+        <v>473</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>431</v>
+        <v>473</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>578</v>
+        <v>846</v>
       </c>
       <c r="G13" s="0" t="b">
         <v>0</v>
@@ -3143,13 +3146,13 @@
         <v>851</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>853</v>
+        <v>861</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>864</v>
+        <v>880</v>
       </c>
       <c r="L13" s="0">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -3157,7 +3160,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>14</v>
+        <v>847</v>
       </c>
       <c r="C14" s="0">
         <v>0.32500000000000001</v>
@@ -3165,7 +3168,7 @@
       <c r="D14" s="0"/>
       <c r="E14" s="0"/>
       <c r="F14" s="0" t="s">
-        <v>579</v>
+        <v>847</v>
       </c>
       <c r="G14" s="0" t="b">
         <v>0</v>
@@ -3185,19 +3188,19 @@
         <v>1</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>15</v>
+        <v>239</v>
       </c>
       <c r="C15" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>291</v>
+        <v>509</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>432</v>
+        <v>509</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>580</v>
+        <v>846</v>
       </c>
       <c r="G15" s="0" t="b">
         <v>0</v>
@@ -3207,10 +3210,10 @@
         <v>851</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>853</v>
+        <v>861</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>864</v>
+        <v>880</v>
       </c>
       <c r="L15" s="0">
         <v>4</v>
@@ -3221,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>16</v>
+        <v>847</v>
       </c>
       <c r="C16" s="0">
         <v>10</v>
@@ -3229,7 +3232,7 @@
       <c r="D16" s="0"/>
       <c r="E16" s="0"/>
       <c r="F16" s="0" t="s">
-        <v>581</v>
+        <v>847</v>
       </c>
       <c r="G16" s="0" t="b">
         <v>0</v>
@@ -3249,19 +3252,19 @@
         <v>2</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>17</v>
+        <v>267</v>
       </c>
       <c r="C17" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>292</v>
+        <v>537</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>433</v>
+        <v>537</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>582</v>
+        <v>846</v>
       </c>
       <c r="G17" s="0" t="b">
         <v>0</v>
@@ -3271,13 +3274,13 @@
         <v>851</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>854</v>
+        <v>861</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>865</v>
+        <v>882</v>
       </c>
       <c r="L17" s="0">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -3285,7 +3288,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>18</v>
+        <v>847</v>
       </c>
       <c r="C18" s="0">
         <v>0.32500000000000001</v>
@@ -3293,7 +3296,7 @@
       <c r="D18" s="0"/>
       <c r="E18" s="0"/>
       <c r="F18" s="0" t="s">
-        <v>583</v>
+        <v>847</v>
       </c>
       <c r="G18" s="0" t="b">
         <v>0</v>
@@ -3313,19 +3316,19 @@
         <v>2</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>19</v>
+        <v>267</v>
       </c>
       <c r="C19" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>293</v>
+        <v>555</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>434</v>
+        <v>555</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>584</v>
+        <v>846</v>
       </c>
       <c r="G19" s="0" t="b">
         <v>0</v>
@@ -3335,13 +3338,13 @@
         <v>851</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>854</v>
+        <v>861</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>865</v>
+        <v>882</v>
       </c>
       <c r="L19" s="0">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -3349,7 +3352,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>20</v>
+        <v>847</v>
       </c>
       <c r="C20" s="0">
         <v>0.32500000000000001</v>
@@ -3357,7 +3360,7 @@
       <c r="D20" s="0"/>
       <c r="E20" s="0"/>
       <c r="F20" s="0" t="s">
-        <v>585</v>
+        <v>847</v>
       </c>
       <c r="G20" s="0" t="b">
         <v>0</v>
@@ -3377,19 +3380,19 @@
         <v>2</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>21</v>
+        <v>267</v>
       </c>
       <c r="C21" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>294</v>
+        <v>554</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>435</v>
+        <v>554</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>586</v>
+        <v>846</v>
       </c>
       <c r="G21" s="0" t="b">
         <v>0</v>
@@ -3399,13 +3402,13 @@
         <v>851</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>854</v>
+        <v>861</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>865</v>
+        <v>882</v>
       </c>
       <c r="L21" s="0">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -3413,7 +3416,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>22</v>
+        <v>847</v>
       </c>
       <c r="C22" s="0">
         <v>0.32500000000000001</v>
@@ -3421,7 +3424,7 @@
       <c r="D22" s="0"/>
       <c r="E22" s="0"/>
       <c r="F22" s="0" t="s">
-        <v>587</v>
+        <v>847</v>
       </c>
       <c r="G22" s="0" t="b">
         <v>0</v>
@@ -3441,19 +3444,19 @@
         <v>2</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>23</v>
+        <v>267</v>
       </c>
       <c r="C23" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>295</v>
+        <v>553</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>436</v>
+        <v>553</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>588</v>
+        <v>846</v>
       </c>
       <c r="G23" s="0" t="b">
         <v>0</v>
@@ -3463,13 +3466,13 @@
         <v>851</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>854</v>
+        <v>861</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>865</v>
+        <v>882</v>
       </c>
       <c r="L23" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -3477,7 +3480,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>24</v>
+        <v>847</v>
       </c>
       <c r="C24" s="0">
         <v>0.32500000000000001</v>
@@ -3485,7 +3488,7 @@
       <c r="D24" s="0"/>
       <c r="E24" s="0"/>
       <c r="F24" s="0" t="s">
-        <v>589</v>
+        <v>847</v>
       </c>
       <c r="G24" s="0" t="b">
         <v>0</v>
@@ -3505,19 +3508,19 @@
         <v>2</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>25</v>
+        <v>267</v>
       </c>
       <c r="C25" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>296</v>
+        <v>557</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>437</v>
+        <v>557</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>590</v>
+        <v>846</v>
       </c>
       <c r="G25" s="0" t="b">
         <v>0</v>
@@ -3527,13 +3530,13 @@
         <v>851</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>854</v>
+        <v>861</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>865</v>
+        <v>882</v>
       </c>
       <c r="L25" s="0">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -3541,7 +3544,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>26</v>
+        <v>847</v>
       </c>
       <c r="C26" s="0">
         <v>0.32500000000000001</v>
@@ -3549,7 +3552,7 @@
       <c r="D26" s="0"/>
       <c r="E26" s="0"/>
       <c r="F26" s="0" t="s">
-        <v>591</v>
+        <v>847</v>
       </c>
       <c r="G26" s="0" t="b">
         <v>0</v>
@@ -3569,19 +3572,19 @@
         <v>2</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>27</v>
+        <v>267</v>
       </c>
       <c r="C27" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>297</v>
+        <v>477</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>438</v>
+        <v>477</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>592</v>
+        <v>846</v>
       </c>
       <c r="G27" s="0" t="b">
         <v>0</v>
@@ -3591,13 +3594,13 @@
         <v>851</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>854</v>
+        <v>861</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>865</v>
+        <v>882</v>
       </c>
       <c r="L27" s="0">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
@@ -3605,7 +3608,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>28</v>
+        <v>847</v>
       </c>
       <c r="C28" s="0">
         <v>0.32500000000000001</v>
@@ -3613,7 +3616,7 @@
       <c r="D28" s="0"/>
       <c r="E28" s="0"/>
       <c r="F28" s="0" t="s">
-        <v>593</v>
+        <v>847</v>
       </c>
       <c r="G28" s="0" t="b">
         <v>0</v>
@@ -3633,19 +3636,19 @@
         <v>2</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>29</v>
+        <v>267</v>
       </c>
       <c r="C29" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>298</v>
+        <v>556</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>439</v>
+        <v>556</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>594</v>
+        <v>846</v>
       </c>
       <c r="G29" s="0" t="b">
         <v>0</v>
@@ -3655,13 +3658,13 @@
         <v>851</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>854</v>
+        <v>861</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>865</v>
+        <v>882</v>
       </c>
       <c r="L29" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -3669,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>30</v>
+        <v>847</v>
       </c>
       <c r="C30" s="0">
         <v>10</v>
@@ -3677,7 +3680,7 @@
       <c r="D30" s="0"/>
       <c r="E30" s="0"/>
       <c r="F30" s="0" t="s">
-        <v>595</v>
+        <v>847</v>
       </c>
       <c r="G30" s="0" t="b">
         <v>0</v>
@@ -3697,19 +3700,19 @@
         <v>3</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>31</v>
+        <v>211</v>
       </c>
       <c r="C31" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>299</v>
+        <v>389</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>440</v>
+        <v>530</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>596</v>
+        <v>846</v>
       </c>
       <c r="G31" s="0" t="b">
         <v>0</v>
@@ -3719,13 +3722,13 @@
         <v>851</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>854</v>
+        <v>862</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>866</v>
+        <v>878</v>
       </c>
       <c r="L31" s="0">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -3733,7 +3736,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>32</v>
+        <v>847</v>
       </c>
       <c r="C32" s="0">
         <v>0.32500000000000001</v>
@@ -3741,7 +3744,7 @@
       <c r="D32" s="0"/>
       <c r="E32" s="0"/>
       <c r="F32" s="0" t="s">
-        <v>597</v>
+        <v>847</v>
       </c>
       <c r="G32" s="0" t="b">
         <v>0</v>
@@ -3761,19 +3764,19 @@
         <v>3</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>33</v>
+        <v>211</v>
       </c>
       <c r="C33" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>441</v>
+        <v>500</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>598</v>
+        <v>846</v>
       </c>
       <c r="G33" s="0" t="b">
         <v>0</v>
@@ -3783,13 +3786,13 @@
         <v>851</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>854</v>
+        <v>862</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>866</v>
+        <v>878</v>
       </c>
       <c r="L33" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -3797,7 +3800,7 @@
         <v>3</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>34</v>
+        <v>847</v>
       </c>
       <c r="C34" s="0">
         <v>0.32500000000000001</v>
@@ -3805,7 +3808,7 @@
       <c r="D34" s="0"/>
       <c r="E34" s="0"/>
       <c r="F34" s="0" t="s">
-        <v>599</v>
+        <v>847</v>
       </c>
       <c r="G34" s="0" t="b">
         <v>0</v>
@@ -3825,19 +3828,19 @@
         <v>3</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>35</v>
+        <v>211</v>
       </c>
       <c r="C35" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>600</v>
+        <v>846</v>
       </c>
       <c r="G35" s="0" t="b">
         <v>0</v>
@@ -3847,13 +3850,13 @@
         <v>851</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>854</v>
+        <v>862</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>866</v>
+        <v>878</v>
       </c>
       <c r="L35" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -3861,7 +3864,7 @@
         <v>3</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>36</v>
+        <v>847</v>
       </c>
       <c r="C36" s="0">
         <v>0.32500000000000001</v>
@@ -3869,7 +3872,7 @@
       <c r="D36" s="0"/>
       <c r="E36" s="0"/>
       <c r="F36" s="0" t="s">
-        <v>601</v>
+        <v>847</v>
       </c>
       <c r="G36" s="0" t="b">
         <v>0</v>
@@ -3889,19 +3892,19 @@
         <v>3</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>37</v>
+        <v>211</v>
       </c>
       <c r="C37" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>443</v>
+        <v>498</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>602</v>
+        <v>846</v>
       </c>
       <c r="G37" s="0" t="b">
         <v>0</v>
@@ -3911,13 +3914,13 @@
         <v>851</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>854</v>
+        <v>862</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>866</v>
+        <v>878</v>
       </c>
       <c r="L37" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
@@ -3925,7 +3928,7 @@
         <v>3</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>38</v>
+        <v>847</v>
       </c>
       <c r="C38" s="0">
         <v>0.32500000000000001</v>
@@ -3933,7 +3936,7 @@
       <c r="D38" s="0"/>
       <c r="E38" s="0"/>
       <c r="F38" s="0" t="s">
-        <v>603</v>
+        <v>847</v>
       </c>
       <c r="G38" s="0" t="b">
         <v>0</v>
@@ -3953,19 +3956,19 @@
         <v>3</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>39</v>
+        <v>211</v>
       </c>
       <c r="C39" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>303</v>
+        <v>386</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>444</v>
+        <v>527</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>604</v>
+        <v>846</v>
       </c>
       <c r="G39" s="0" t="b">
         <v>0</v>
@@ -3975,13 +3978,13 @@
         <v>851</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>854</v>
+        <v>862</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>866</v>
+        <v>878</v>
       </c>
       <c r="L39" s="0">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40">
@@ -3989,7 +3992,7 @@
         <v>3</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>40</v>
+        <v>847</v>
       </c>
       <c r="C40" s="0">
         <v>0.32500000000000001</v>
@@ -3997,7 +4000,7 @@
       <c r="D40" s="0"/>
       <c r="E40" s="0"/>
       <c r="F40" s="0" t="s">
-        <v>605</v>
+        <v>847</v>
       </c>
       <c r="G40" s="0" t="b">
         <v>0</v>
@@ -4017,19 +4020,19 @@
         <v>3</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>41</v>
+        <v>211</v>
       </c>
       <c r="C41" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>304</v>
+        <v>388</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>445</v>
+        <v>529</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>606</v>
+        <v>846</v>
       </c>
       <c r="G41" s="0" t="b">
         <v>0</v>
@@ -4039,13 +4042,13 @@
         <v>851</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>854</v>
+        <v>862</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>866</v>
+        <v>878</v>
       </c>
       <c r="L41" s="0">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42">
@@ -4053,7 +4056,7 @@
         <v>3</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>42</v>
+        <v>847</v>
       </c>
       <c r="C42" s="0">
         <v>0.32500000000000001</v>
@@ -4061,7 +4064,7 @@
       <c r="D42" s="0"/>
       <c r="E42" s="0"/>
       <c r="F42" s="0" t="s">
-        <v>607</v>
+        <v>847</v>
       </c>
       <c r="G42" s="0" t="b">
         <v>0</v>
@@ -4081,19 +4084,19 @@
         <v>3</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>43</v>
+        <v>211</v>
       </c>
       <c r="C43" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>608</v>
+        <v>846</v>
       </c>
       <c r="G43" s="0" t="b">
         <v>0</v>
@@ -4103,13 +4106,13 @@
         <v>851</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>854</v>
+        <v>862</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>866</v>
+        <v>878</v>
       </c>
       <c r="L43" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
@@ -4117,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>44</v>
+        <v>847</v>
       </c>
       <c r="C44" s="0">
         <v>10</v>
@@ -4125,7 +4128,7 @@
       <c r="D44" s="0"/>
       <c r="E44" s="0"/>
       <c r="F44" s="0" t="s">
-        <v>609</v>
+        <v>847</v>
       </c>
       <c r="G44" s="0" t="b">
         <v>0</v>
@@ -4145,19 +4148,19 @@
         <v>4</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c r="C45" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>610</v>
+        <v>846</v>
       </c>
       <c r="G45" s="0" t="b">
         <v>0</v>
@@ -4167,13 +4170,13 @@
         <v>851</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>867</v>
+        <v>880</v>
       </c>
       <c r="L45" s="0">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -4181,7 +4184,7 @@
         <v>4</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>46</v>
+        <v>847</v>
       </c>
       <c r="C46" s="0">
         <v>0.32500000000000001</v>
@@ -4189,7 +4192,7 @@
       <c r="D46" s="0"/>
       <c r="E46" s="0"/>
       <c r="F46" s="0" t="s">
-        <v>611</v>
+        <v>847</v>
       </c>
       <c r="G46" s="0" t="b">
         <v>0</v>
@@ -4209,19 +4212,19 @@
         <v>4</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>47</v>
+        <v>169</v>
       </c>
       <c r="C47" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>448</v>
+        <v>543</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>612</v>
+        <v>846</v>
       </c>
       <c r="G47" s="0" t="b">
         <v>0</v>
@@ -4231,13 +4234,13 @@
         <v>851</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>867</v>
+        <v>880</v>
       </c>
       <c r="L47" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48">
@@ -4245,7 +4248,7 @@
         <v>4</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>48</v>
+        <v>847</v>
       </c>
       <c r="C48" s="0">
         <v>0.32500000000000001</v>
@@ -4253,7 +4256,7 @@
       <c r="D48" s="0"/>
       <c r="E48" s="0"/>
       <c r="F48" s="0" t="s">
-        <v>613</v>
+        <v>847</v>
       </c>
       <c r="G48" s="0" t="b">
         <v>0</v>
@@ -4273,19 +4276,19 @@
         <v>4</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>49</v>
+        <v>169</v>
       </c>
       <c r="C49" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>449</v>
+        <v>471</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>614</v>
+        <v>846</v>
       </c>
       <c r="G49" s="0" t="b">
         <v>0</v>
@@ -4295,13 +4298,13 @@
         <v>851</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>867</v>
+        <v>880</v>
       </c>
       <c r="L49" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50">
@@ -4309,7 +4312,7 @@
         <v>4</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>50</v>
+        <v>847</v>
       </c>
       <c r="C50" s="0">
         <v>0.32500000000000001</v>
@@ -4317,7 +4320,7 @@
       <c r="D50" s="0"/>
       <c r="E50" s="0"/>
       <c r="F50" s="0" t="s">
-        <v>615</v>
+        <v>847</v>
       </c>
       <c r="G50" s="0" t="b">
         <v>0</v>
@@ -4337,19 +4340,19 @@
         <v>4</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>51</v>
+        <v>169</v>
       </c>
       <c r="C51" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>450</v>
+        <v>473</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>616</v>
+        <v>846</v>
       </c>
       <c r="G51" s="0" t="b">
         <v>0</v>
@@ -4359,13 +4362,13 @@
         <v>851</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>867</v>
+        <v>880</v>
       </c>
       <c r="L51" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52">
@@ -4373,7 +4376,7 @@
         <v>4</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>52</v>
+        <v>847</v>
       </c>
       <c r="C52" s="0">
         <v>0.32500000000000001</v>
@@ -4381,7 +4384,7 @@
       <c r="D52" s="0"/>
       <c r="E52" s="0"/>
       <c r="F52" s="0" t="s">
-        <v>617</v>
+        <v>847</v>
       </c>
       <c r="G52" s="0" t="b">
         <v>0</v>
@@ -4401,19 +4404,19 @@
         <v>4</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>53</v>
+        <v>169</v>
       </c>
       <c r="C53" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>451</v>
+        <v>538</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>618</v>
+        <v>846</v>
       </c>
       <c r="G53" s="0" t="b">
         <v>0</v>
@@ -4423,13 +4426,13 @@
         <v>851</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>867</v>
+        <v>880</v>
       </c>
       <c r="L53" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54">
@@ -4437,7 +4440,7 @@
         <v>4</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>54</v>
+        <v>847</v>
       </c>
       <c r="C54" s="0">
         <v>0.32500000000000001</v>
@@ -4445,7 +4448,7 @@
       <c r="D54" s="0"/>
       <c r="E54" s="0"/>
       <c r="F54" s="0" t="s">
-        <v>619</v>
+        <v>847</v>
       </c>
       <c r="G54" s="0" t="b">
         <v>0</v>
@@ -4465,19 +4468,19 @@
         <v>4</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>55</v>
+        <v>169</v>
       </c>
       <c r="C55" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>311</v>
+        <v>367</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>452</v>
+        <v>542</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>620</v>
+        <v>846</v>
       </c>
       <c r="G55" s="0" t="b">
         <v>0</v>
@@ -4487,13 +4490,13 @@
         <v>851</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>867</v>
+        <v>880</v>
       </c>
       <c r="L55" s="0">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
@@ -4501,7 +4504,7 @@
         <v>4</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>56</v>
+        <v>847</v>
       </c>
       <c r="C56" s="0">
         <v>0.32500000000000001</v>
@@ -4509,7 +4512,7 @@
       <c r="D56" s="0"/>
       <c r="E56" s="0"/>
       <c r="F56" s="0" t="s">
-        <v>621</v>
+        <v>847</v>
       </c>
       <c r="G56" s="0" t="b">
         <v>0</v>
@@ -4529,19 +4532,19 @@
         <v>4</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>57</v>
+        <v>169</v>
       </c>
       <c r="C57" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>312</v>
+        <v>364</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>453</v>
+        <v>505</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>622</v>
+        <v>846</v>
       </c>
       <c r="G57" s="0" t="b">
         <v>0</v>
@@ -4551,13 +4554,13 @@
         <v>851</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="K57" s="0" t="s">
-        <v>867</v>
+        <v>880</v>
       </c>
       <c r="L57" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58">
@@ -4565,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>58</v>
+        <v>847</v>
       </c>
       <c r="C58" s="0">
         <v>10</v>
@@ -4573,7 +4576,7 @@
       <c r="D58" s="0"/>
       <c r="E58" s="0"/>
       <c r="F58" s="0" t="s">
-        <v>623</v>
+        <v>847</v>
       </c>
       <c r="G58" s="0" t="b">
         <v>0</v>
@@ -4593,19 +4596,19 @@
         <v>5</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>59</v>
+        <v>183</v>
       </c>
       <c r="C59" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>313</v>
+        <v>494</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>454</v>
+        <v>494</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>624</v>
+        <v>846</v>
       </c>
       <c r="G59" s="0" t="b">
         <v>0</v>
@@ -4615,13 +4618,13 @@
         <v>851</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>868</v>
+        <v>883</v>
       </c>
       <c r="L59" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60">
@@ -4629,7 +4632,7 @@
         <v>5</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>60</v>
+        <v>847</v>
       </c>
       <c r="C60" s="0">
         <v>0.32500000000000001</v>
@@ -4637,7 +4640,7 @@
       <c r="D60" s="0"/>
       <c r="E60" s="0"/>
       <c r="F60" s="0" t="s">
-        <v>625</v>
+        <v>847</v>
       </c>
       <c r="G60" s="0" t="b">
         <v>0</v>
@@ -4657,19 +4660,19 @@
         <v>5</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>61</v>
+        <v>183</v>
       </c>
       <c r="C61" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>314</v>
+        <v>565</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>455</v>
+        <v>565</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>626</v>
+        <v>846</v>
       </c>
       <c r="G61" s="0" t="b">
         <v>0</v>
@@ -4679,13 +4682,13 @@
         <v>851</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
       <c r="K61" s="0" t="s">
-        <v>868</v>
+        <v>883</v>
       </c>
       <c r="L61" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62">
@@ -4693,7 +4696,7 @@
         <v>5</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>62</v>
+        <v>847</v>
       </c>
       <c r="C62" s="0">
         <v>0.32500000000000001</v>
@@ -4701,7 +4704,7 @@
       <c r="D62" s="0"/>
       <c r="E62" s="0"/>
       <c r="F62" s="0" t="s">
-        <v>627</v>
+        <v>847</v>
       </c>
       <c r="G62" s="0" t="b">
         <v>0</v>
@@ -4721,19 +4724,19 @@
         <v>5</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="C63" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>315</v>
+        <v>516</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>456</v>
+        <v>516</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>628</v>
+        <v>846</v>
       </c>
       <c r="G63" s="0" t="b">
         <v>0</v>
@@ -4743,13 +4746,13 @@
         <v>851</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>868</v>
+        <v>883</v>
       </c>
       <c r="L63" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64">
@@ -4757,7 +4760,7 @@
         <v>5</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>64</v>
+        <v>847</v>
       </c>
       <c r="C64" s="0">
         <v>0.32500000000000001</v>
@@ -4765,7 +4768,7 @@
       <c r="D64" s="0"/>
       <c r="E64" s="0"/>
       <c r="F64" s="0" t="s">
-        <v>629</v>
+        <v>847</v>
       </c>
       <c r="G64" s="0" t="b">
         <v>0</v>
@@ -4785,19 +4788,19 @@
         <v>5</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>65</v>
+        <v>183</v>
       </c>
       <c r="C65" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>316</v>
+        <v>561</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>457</v>
+        <v>561</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>630</v>
+        <v>846</v>
       </c>
       <c r="G65" s="0" t="b">
         <v>0</v>
@@ -4807,13 +4810,13 @@
         <v>851</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
       <c r="K65" s="0" t="s">
-        <v>868</v>
+        <v>883</v>
       </c>
       <c r="L65" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66">
@@ -4821,7 +4824,7 @@
         <v>5</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>66</v>
+        <v>847</v>
       </c>
       <c r="C66" s="0">
         <v>0.32500000000000001</v>
@@ -4829,7 +4832,7 @@
       <c r="D66" s="0"/>
       <c r="E66" s="0"/>
       <c r="F66" s="0" t="s">
-        <v>631</v>
+        <v>847</v>
       </c>
       <c r="G66" s="0" t="b">
         <v>0</v>
@@ -4849,19 +4852,19 @@
         <v>5</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>67</v>
+        <v>183</v>
       </c>
       <c r="C67" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>317</v>
+        <v>562</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>458</v>
+        <v>562</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>632</v>
+        <v>846</v>
       </c>
       <c r="G67" s="0" t="b">
         <v>0</v>
@@ -4871,13 +4874,13 @@
         <v>851</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
       <c r="K67" s="0" t="s">
-        <v>868</v>
+        <v>883</v>
       </c>
       <c r="L67" s="0">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
@@ -4885,7 +4888,7 @@
         <v>5</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>68</v>
+        <v>847</v>
       </c>
       <c r="C68" s="0">
         <v>0.32500000000000001</v>
@@ -4893,7 +4896,7 @@
       <c r="D68" s="0"/>
       <c r="E68" s="0"/>
       <c r="F68" s="0" t="s">
-        <v>633</v>
+        <v>847</v>
       </c>
       <c r="G68" s="0" t="b">
         <v>0</v>
@@ -4913,19 +4916,19 @@
         <v>5</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>69</v>
+        <v>183</v>
       </c>
       <c r="C69" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>318</v>
+        <v>560</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>459</v>
+        <v>560</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>634</v>
+        <v>846</v>
       </c>
       <c r="G69" s="0" t="b">
         <v>0</v>
@@ -4935,13 +4938,13 @@
         <v>851</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
       <c r="K69" s="0" t="s">
-        <v>868</v>
+        <v>883</v>
       </c>
       <c r="L69" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
@@ -4949,7 +4952,7 @@
         <v>5</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>70</v>
+        <v>847</v>
       </c>
       <c r="C70" s="0">
         <v>0.32500000000000001</v>
@@ -4957,7 +4960,7 @@
       <c r="D70" s="0"/>
       <c r="E70" s="0"/>
       <c r="F70" s="0" t="s">
-        <v>635</v>
+        <v>847</v>
       </c>
       <c r="G70" s="0" t="b">
         <v>0</v>
@@ -4977,19 +4980,19 @@
         <v>5</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>71</v>
+        <v>183</v>
       </c>
       <c r="C71" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>319</v>
+        <v>489</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>460</v>
+        <v>489</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>636</v>
+        <v>846</v>
       </c>
       <c r="G71" s="0" t="b">
         <v>0</v>
@@ -4999,13 +5002,13 @@
         <v>851</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
       <c r="K71" s="0" t="s">
-        <v>868</v>
+        <v>883</v>
       </c>
       <c r="L71" s="0">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72">
@@ -5013,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>72</v>
+        <v>847</v>
       </c>
       <c r="C72" s="0">
         <v>10</v>
@@ -5021,7 +5024,7 @@
       <c r="D72" s="0"/>
       <c r="E72" s="0"/>
       <c r="F72" s="0" t="s">
-        <v>637</v>
+        <v>847</v>
       </c>
       <c r="G72" s="0" t="b">
         <v>0</v>
@@ -5041,19 +5044,19 @@
         <v>6</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>73</v>
+        <v>225</v>
       </c>
       <c r="C73" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>638</v>
+        <v>846</v>
       </c>
       <c r="G73" s="0" t="b">
         <v>0</v>
@@ -5063,13 +5066,13 @@
         <v>851</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="K73" s="0" t="s">
-        <v>869</v>
+        <v>882</v>
       </c>
       <c r="L73" s="0">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74">
@@ -5077,7 +5080,7 @@
         <v>6</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>74</v>
+        <v>847</v>
       </c>
       <c r="C74" s="0">
         <v>0.32500000000000001</v>
@@ -5085,7 +5088,7 @@
       <c r="D74" s="0"/>
       <c r="E74" s="0"/>
       <c r="F74" s="0" t="s">
-        <v>639</v>
+        <v>847</v>
       </c>
       <c r="G74" s="0" t="b">
         <v>0</v>
@@ -5105,19 +5108,19 @@
         <v>6</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>75</v>
+        <v>225</v>
       </c>
       <c r="C75" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>462</v>
+        <v>555</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>640</v>
+        <v>846</v>
       </c>
       <c r="G75" s="0" t="b">
         <v>0</v>
@@ -5127,13 +5130,13 @@
         <v>851</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="K75" s="0" t="s">
-        <v>869</v>
+        <v>882</v>
       </c>
       <c r="L75" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
@@ -5141,7 +5144,7 @@
         <v>6</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>76</v>
+        <v>847</v>
       </c>
       <c r="C76" s="0">
         <v>0.32500000000000001</v>
@@ -5149,7 +5152,7 @@
       <c r="D76" s="0"/>
       <c r="E76" s="0"/>
       <c r="F76" s="0" t="s">
-        <v>641</v>
+        <v>847</v>
       </c>
       <c r="G76" s="0" t="b">
         <v>0</v>
@@ -5169,19 +5172,19 @@
         <v>6</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="C77" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>322</v>
+        <v>392</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>463</v>
+        <v>533</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>642</v>
+        <v>846</v>
       </c>
       <c r="G77" s="0" t="b">
         <v>0</v>
@@ -5191,13 +5194,13 @@
         <v>851</v>
       </c>
       <c r="J77" s="0" t="s">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="K77" s="0" t="s">
-        <v>869</v>
+        <v>882</v>
       </c>
       <c r="L77" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78">
@@ -5205,7 +5208,7 @@
         <v>6</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>78</v>
+        <v>847</v>
       </c>
       <c r="C78" s="0">
         <v>0.32500000000000001</v>
@@ -5213,7 +5216,7 @@
       <c r="D78" s="0"/>
       <c r="E78" s="0"/>
       <c r="F78" s="0" t="s">
-        <v>643</v>
+        <v>847</v>
       </c>
       <c r="G78" s="0" t="b">
         <v>0</v>
@@ -5233,19 +5236,19 @@
         <v>6</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>79</v>
+        <v>225</v>
       </c>
       <c r="C79" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>323</v>
+        <v>391</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>464</v>
+        <v>552</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>644</v>
+        <v>846</v>
       </c>
       <c r="G79" s="0" t="b">
         <v>0</v>
@@ -5255,13 +5258,13 @@
         <v>851</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="K79" s="0" t="s">
-        <v>869</v>
+        <v>882</v>
       </c>
       <c r="L79" s="0">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80">
@@ -5269,7 +5272,7 @@
         <v>6</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>80</v>
+        <v>847</v>
       </c>
       <c r="C80" s="0">
         <v>0.32500000000000001</v>
@@ -5277,7 +5280,7 @@
       <c r="D80" s="0"/>
       <c r="E80" s="0"/>
       <c r="F80" s="0" t="s">
-        <v>645</v>
+        <v>847</v>
       </c>
       <c r="G80" s="0" t="b">
         <v>0</v>
@@ -5297,19 +5300,19 @@
         <v>6</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>81</v>
+        <v>225</v>
       </c>
       <c r="C81" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>465</v>
+        <v>554</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>646</v>
+        <v>846</v>
       </c>
       <c r="G81" s="0" t="b">
         <v>0</v>
@@ -5319,13 +5322,13 @@
         <v>851</v>
       </c>
       <c r="J81" s="0" t="s">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="K81" s="0" t="s">
-        <v>869</v>
+        <v>882</v>
       </c>
       <c r="L81" s="0">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82">
@@ -5333,7 +5336,7 @@
         <v>6</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>82</v>
+        <v>847</v>
       </c>
       <c r="C82" s="0">
         <v>0.32500000000000001</v>
@@ -5341,7 +5344,7 @@
       <c r="D82" s="0"/>
       <c r="E82" s="0"/>
       <c r="F82" s="0" t="s">
-        <v>647</v>
+        <v>847</v>
       </c>
       <c r="G82" s="0" t="b">
         <v>0</v>
@@ -5361,19 +5364,19 @@
         <v>6</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>83</v>
+        <v>225</v>
       </c>
       <c r="C83" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>466</v>
+        <v>553</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>648</v>
+        <v>846</v>
       </c>
       <c r="G83" s="0" t="b">
         <v>0</v>
@@ -5383,13 +5386,13 @@
         <v>851</v>
       </c>
       <c r="J83" s="0" t="s">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="K83" s="0" t="s">
-        <v>869</v>
+        <v>882</v>
       </c>
       <c r="L83" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84">
@@ -5397,7 +5400,7 @@
         <v>6</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>84</v>
+        <v>847</v>
       </c>
       <c r="C84" s="0">
         <v>0.32500000000000001</v>
@@ -5405,7 +5408,7 @@
       <c r="D84" s="0"/>
       <c r="E84" s="0"/>
       <c r="F84" s="0" t="s">
-        <v>649</v>
+        <v>847</v>
       </c>
       <c r="G84" s="0" t="b">
         <v>0</v>
@@ -5425,19 +5428,19 @@
         <v>6</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>85</v>
+        <v>225</v>
       </c>
       <c r="C85" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>467</v>
+        <v>556</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>650</v>
+        <v>846</v>
       </c>
       <c r="G85" s="0" t="b">
         <v>0</v>
@@ -5447,13 +5450,13 @@
         <v>851</v>
       </c>
       <c r="J85" s="0" t="s">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="K85" s="0" t="s">
-        <v>869</v>
+        <v>882</v>
       </c>
       <c r="L85" s="0">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86">
@@ -5461,7 +5464,7 @@
         <v>0</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>86</v>
+        <v>847</v>
       </c>
       <c r="C86" s="0">
         <v>10</v>
@@ -5469,7 +5472,7 @@
       <c r="D86" s="0"/>
       <c r="E86" s="0"/>
       <c r="F86" s="0" t="s">
-        <v>651</v>
+        <v>847</v>
       </c>
       <c r="G86" s="0" t="b">
         <v>0</v>
@@ -5489,19 +5492,19 @@
         <v>7</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>87</v>
+        <v>281</v>
       </c>
       <c r="C87" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>468</v>
+        <v>491</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>652</v>
+        <v>846</v>
       </c>
       <c r="G87" s="0" t="b">
         <v>0</v>
@@ -5511,13 +5514,13 @@
         <v>851</v>
       </c>
       <c r="J87" s="0" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="K87" s="0" t="s">
-        <v>870</v>
+        <v>883</v>
       </c>
       <c r="L87" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88">
@@ -5525,7 +5528,7 @@
         <v>7</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>88</v>
+        <v>847</v>
       </c>
       <c r="C88" s="0">
         <v>0.32500000000000001</v>
@@ -5533,7 +5536,7 @@
       <c r="D88" s="0"/>
       <c r="E88" s="0"/>
       <c r="F88" s="0" t="s">
-        <v>653</v>
+        <v>847</v>
       </c>
       <c r="G88" s="0" t="b">
         <v>0</v>
@@ -5553,19 +5556,19 @@
         <v>7</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>89</v>
+        <v>281</v>
       </c>
       <c r="C89" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>328</v>
+        <v>424</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>469</v>
+        <v>565</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>654</v>
+        <v>846</v>
       </c>
       <c r="G89" s="0" t="b">
         <v>0</v>
@@ -5575,13 +5578,13 @@
         <v>851</v>
       </c>
       <c r="J89" s="0" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="K89" s="0" t="s">
-        <v>870</v>
+        <v>883</v>
       </c>
       <c r="L89" s="0">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90">
@@ -5589,7 +5592,7 @@
         <v>7</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>90</v>
+        <v>847</v>
       </c>
       <c r="C90" s="0">
         <v>0.32500000000000001</v>
@@ -5597,7 +5600,7 @@
       <c r="D90" s="0"/>
       <c r="E90" s="0"/>
       <c r="F90" s="0" t="s">
-        <v>655</v>
+        <v>847</v>
       </c>
       <c r="G90" s="0" t="b">
         <v>0</v>
@@ -5617,19 +5620,19 @@
         <v>7</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>91</v>
+        <v>281</v>
       </c>
       <c r="C91" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>329</v>
+        <v>423</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>470</v>
+        <v>564</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>656</v>
+        <v>846</v>
       </c>
       <c r="G91" s="0" t="b">
         <v>0</v>
@@ -5639,13 +5642,13 @@
         <v>851</v>
       </c>
       <c r="J91" s="0" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="K91" s="0" t="s">
-        <v>870</v>
+        <v>883</v>
       </c>
       <c r="L91" s="0">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92">
@@ -5653,7 +5656,7 @@
         <v>7</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>92</v>
+        <v>847</v>
       </c>
       <c r="C92" s="0">
         <v>0.32500000000000001</v>
@@ -5661,7 +5664,7 @@
       <c r="D92" s="0"/>
       <c r="E92" s="0"/>
       <c r="F92" s="0" t="s">
-        <v>657</v>
+        <v>847</v>
       </c>
       <c r="G92" s="0" t="b">
         <v>0</v>
@@ -5681,19 +5684,19 @@
         <v>7</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>93</v>
+        <v>281</v>
       </c>
       <c r="C93" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>330</v>
+        <v>421</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>471</v>
+        <v>562</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>658</v>
+        <v>846</v>
       </c>
       <c r="G93" s="0" t="b">
         <v>0</v>
@@ -5703,13 +5706,13 @@
         <v>851</v>
       </c>
       <c r="J93" s="0" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="K93" s="0" t="s">
-        <v>870</v>
+        <v>883</v>
       </c>
       <c r="L93" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94">
@@ -5717,7 +5720,7 @@
         <v>7</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>94</v>
+        <v>847</v>
       </c>
       <c r="C94" s="0">
         <v>0.32500000000000001</v>
@@ -5725,7 +5728,7 @@
       <c r="D94" s="0"/>
       <c r="E94" s="0"/>
       <c r="F94" s="0" t="s">
-        <v>659</v>
+        <v>847</v>
       </c>
       <c r="G94" s="0" t="b">
         <v>0</v>
@@ -5745,19 +5748,19 @@
         <v>7</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>95</v>
+        <v>281</v>
       </c>
       <c r="C95" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>472</v>
+        <v>495</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>660</v>
+        <v>846</v>
       </c>
       <c r="G95" s="0" t="b">
         <v>0</v>
@@ -5767,13 +5770,13 @@
         <v>851</v>
       </c>
       <c r="J95" s="0" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="K95" s="0" t="s">
-        <v>870</v>
+        <v>883</v>
       </c>
       <c r="L95" s="0">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96">
@@ -5781,7 +5784,7 @@
         <v>7</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>96</v>
+        <v>847</v>
       </c>
       <c r="C96" s="0">
         <v>0.32500000000000001</v>
@@ -5789,7 +5792,7 @@
       <c r="D96" s="0"/>
       <c r="E96" s="0"/>
       <c r="F96" s="0" t="s">
-        <v>661</v>
+        <v>847</v>
       </c>
       <c r="G96" s="0" t="b">
         <v>0</v>
@@ -5809,19 +5812,19 @@
         <v>7</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>97</v>
+        <v>281</v>
       </c>
       <c r="C97" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>332</v>
+        <v>300</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>473</v>
+        <v>511</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>662</v>
+        <v>846</v>
       </c>
       <c r="G97" s="0" t="b">
         <v>0</v>
@@ -5831,13 +5834,13 @@
         <v>851</v>
       </c>
       <c r="J97" s="0" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="K97" s="0" t="s">
-        <v>870</v>
+        <v>883</v>
       </c>
       <c r="L97" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98">
@@ -5845,7 +5848,7 @@
         <v>7</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>98</v>
+        <v>847</v>
       </c>
       <c r="C98" s="0">
         <v>0.32500000000000001</v>
@@ -5853,7 +5856,7 @@
       <c r="D98" s="0"/>
       <c r="E98" s="0"/>
       <c r="F98" s="0" t="s">
-        <v>663</v>
+        <v>847</v>
       </c>
       <c r="G98" s="0" t="b">
         <v>0</v>
@@ -5873,19 +5876,19 @@
         <v>7</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>99</v>
+        <v>281</v>
       </c>
       <c r="C99" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>474</v>
+        <v>516</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>664</v>
+        <v>846</v>
       </c>
       <c r="G99" s="0" t="b">
         <v>0</v>
@@ -5895,13 +5898,13 @@
         <v>851</v>
       </c>
       <c r="J99" s="0" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="K99" s="0" t="s">
-        <v>870</v>
+        <v>883</v>
       </c>
       <c r="L99" s="0">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100">
@@ -5909,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>100</v>
+        <v>847</v>
       </c>
       <c r="C100" s="0">
         <v>10</v>
@@ -5917,7 +5920,7 @@
       <c r="D100" s="0"/>
       <c r="E100" s="0"/>
       <c r="F100" s="0" t="s">
-        <v>665</v>
+        <v>847</v>
       </c>
       <c r="G100" s="0" t="b">
         <v>0</v>
@@ -5937,19 +5940,19 @@
         <v>8</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>101</v>
+        <v>197</v>
       </c>
       <c r="C101" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>334</v>
+        <v>381</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>475</v>
+        <v>522</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>666</v>
+        <v>846</v>
       </c>
       <c r="G101" s="0" t="b">
         <v>0</v>
@@ -5959,13 +5962,13 @@
         <v>851</v>
       </c>
       <c r="J101" s="0" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="K101" s="0" t="s">
-        <v>871</v>
+        <v>881</v>
       </c>
       <c r="L101" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -5973,7 +5976,7 @@
         <v>8</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>102</v>
+        <v>847</v>
       </c>
       <c r="C102" s="0">
         <v>0.32500000000000001</v>
@@ -5981,7 +5984,7 @@
       <c r="D102" s="0"/>
       <c r="E102" s="0"/>
       <c r="F102" s="0" t="s">
-        <v>667</v>
+        <v>847</v>
       </c>
       <c r="G102" s="0" t="b">
         <v>0</v>
@@ -6001,19 +6004,19 @@
         <v>8</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>103</v>
+        <v>197</v>
       </c>
       <c r="C103" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>335</v>
+        <v>379</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>476</v>
+        <v>547</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>668</v>
+        <v>846</v>
       </c>
       <c r="G103" s="0" t="b">
         <v>0</v>
@@ -6023,13 +6026,13 @@
         <v>851</v>
       </c>
       <c r="J103" s="0" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="K103" s="0" t="s">
-        <v>871</v>
+        <v>881</v>
       </c>
       <c r="L103" s="0">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104">
@@ -6037,7 +6040,7 @@
         <v>8</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>104</v>
+        <v>847</v>
       </c>
       <c r="C104" s="0">
         <v>0.32500000000000001</v>
@@ -6045,7 +6048,7 @@
       <c r="D104" s="0"/>
       <c r="E104" s="0"/>
       <c r="F104" s="0" t="s">
-        <v>669</v>
+        <v>847</v>
       </c>
       <c r="G104" s="0" t="b">
         <v>0</v>
@@ -6065,19 +6068,19 @@
         <v>8</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>105</v>
+        <v>197</v>
       </c>
       <c r="C105" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>477</v>
+        <v>545</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>670</v>
+        <v>846</v>
       </c>
       <c r="G105" s="0" t="b">
         <v>0</v>
@@ -6087,13 +6090,13 @@
         <v>851</v>
       </c>
       <c r="J105" s="0" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="K105" s="0" t="s">
-        <v>871</v>
+        <v>881</v>
       </c>
       <c r="L105" s="0">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106">
@@ -6101,7 +6104,7 @@
         <v>8</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>106</v>
+        <v>847</v>
       </c>
       <c r="C106" s="0">
         <v>0.32500000000000001</v>
@@ -6109,7 +6112,7 @@
       <c r="D106" s="0"/>
       <c r="E106" s="0"/>
       <c r="F106" s="0" t="s">
-        <v>671</v>
+        <v>847</v>
       </c>
       <c r="G106" s="0" t="b">
         <v>0</v>
@@ -6129,19 +6132,19 @@
         <v>8</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>107</v>
+        <v>197</v>
       </c>
       <c r="C107" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>478</v>
+        <v>517</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>672</v>
+        <v>846</v>
       </c>
       <c r="G107" s="0" t="b">
         <v>0</v>
@@ -6151,10 +6154,10 @@
         <v>851</v>
       </c>
       <c r="J107" s="0" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="K107" s="0" t="s">
-        <v>871</v>
+        <v>881</v>
       </c>
       <c r="L107" s="0">
         <v>2</v>
@@ -6165,7 +6168,7 @@
         <v>8</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>108</v>
+        <v>847</v>
       </c>
       <c r="C108" s="0">
         <v>0.32500000000000001</v>
@@ -6173,7 +6176,7 @@
       <c r="D108" s="0"/>
       <c r="E108" s="0"/>
       <c r="F108" s="0" t="s">
-        <v>673</v>
+        <v>847</v>
       </c>
       <c r="G108" s="0" t="b">
         <v>0</v>
@@ -6193,19 +6196,19 @@
         <v>8</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>109</v>
+        <v>197</v>
       </c>
       <c r="C109" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>479</v>
+        <v>548</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>674</v>
+        <v>846</v>
       </c>
       <c r="G109" s="0" t="b">
         <v>0</v>
@@ -6215,13 +6218,13 @@
         <v>851</v>
       </c>
       <c r="J109" s="0" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="K109" s="0" t="s">
-        <v>871</v>
+        <v>881</v>
       </c>
       <c r="L109" s="0">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110">
@@ -6229,7 +6232,7 @@
         <v>8</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>110</v>
+        <v>847</v>
       </c>
       <c r="C110" s="0">
         <v>0.32500000000000001</v>
@@ -6237,7 +6240,7 @@
       <c r="D110" s="0"/>
       <c r="E110" s="0"/>
       <c r="F110" s="0" t="s">
-        <v>675</v>
+        <v>847</v>
       </c>
       <c r="G110" s="0" t="b">
         <v>0</v>
@@ -6257,19 +6260,19 @@
         <v>8</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>111</v>
+        <v>197</v>
       </c>
       <c r="C111" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>480</v>
+        <v>546</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>676</v>
+        <v>846</v>
       </c>
       <c r="G111" s="0" t="b">
         <v>0</v>
@@ -6279,13 +6282,13 @@
         <v>851</v>
       </c>
       <c r="J111" s="0" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="K111" s="0" t="s">
-        <v>871</v>
+        <v>881</v>
       </c>
       <c r="L111" s="0">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112">
@@ -6293,7 +6296,7 @@
         <v>8</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>112</v>
+        <v>847</v>
       </c>
       <c r="C112" s="0">
         <v>0.32500000000000001</v>
@@ -6301,7 +6304,7 @@
       <c r="D112" s="0"/>
       <c r="E112" s="0"/>
       <c r="F112" s="0" t="s">
-        <v>677</v>
+        <v>847</v>
       </c>
       <c r="G112" s="0" t="b">
         <v>0</v>
@@ -6321,19 +6324,19 @@
         <v>8</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>113</v>
+        <v>197</v>
       </c>
       <c r="C113" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>481</v>
+        <v>551</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>678</v>
+        <v>846</v>
       </c>
       <c r="G113" s="0" t="b">
         <v>0</v>
@@ -6343,13 +6346,13 @@
         <v>851</v>
       </c>
       <c r="J113" s="0" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="K113" s="0" t="s">
-        <v>871</v>
+        <v>881</v>
       </c>
       <c r="L113" s="0">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114">
@@ -6357,7 +6360,7 @@
         <v>0</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>114</v>
+        <v>847</v>
       </c>
       <c r="C114" s="0">
         <v>10</v>
@@ -6365,7 +6368,7 @@
       <c r="D114" s="0"/>
       <c r="E114" s="0"/>
       <c r="F114" s="0" t="s">
-        <v>679</v>
+        <v>847</v>
       </c>
       <c r="G114" s="0" t="b">
         <v>0</v>
@@ -6385,19 +6388,19 @@
         <v>9</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="C115" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>341</v>
+        <v>498</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>680</v>
+        <v>846</v>
       </c>
       <c r="G115" s="0" t="b">
         <v>0</v>
@@ -6407,13 +6410,13 @@
         <v>851</v>
       </c>
       <c r="J115" s="0" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="K115" s="0" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="L115" s="0">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="116">
@@ -6421,7 +6424,7 @@
         <v>9</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>116</v>
+        <v>847</v>
       </c>
       <c r="C116" s="0">
         <v>0.32500000000000001</v>
@@ -6429,7 +6432,7 @@
       <c r="D116" s="0"/>
       <c r="E116" s="0"/>
       <c r="F116" s="0" t="s">
-        <v>681</v>
+        <v>847</v>
       </c>
       <c r="G116" s="0" t="b">
         <v>0</v>
@@ -6449,19 +6452,19 @@
         <v>9</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="C117" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>342</v>
+        <v>529</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>483</v>
+        <v>529</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>682</v>
+        <v>846</v>
       </c>
       <c r="G117" s="0" t="b">
         <v>0</v>
@@ -6471,13 +6474,13 @@
         <v>851</v>
       </c>
       <c r="J117" s="0" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="K117" s="0" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="L117" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118">
@@ -6485,7 +6488,7 @@
         <v>9</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>118</v>
+        <v>847</v>
       </c>
       <c r="C118" s="0">
         <v>0.32500000000000001</v>
@@ -6493,7 +6496,7 @@
       <c r="D118" s="0"/>
       <c r="E118" s="0"/>
       <c r="F118" s="0" t="s">
-        <v>683</v>
+        <v>847</v>
       </c>
       <c r="G118" s="0" t="b">
         <v>0</v>
@@ -6513,19 +6516,19 @@
         <v>9</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="C119" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>343</v>
+        <v>527</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>484</v>
+        <v>527</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>684</v>
+        <v>846</v>
       </c>
       <c r="G119" s="0" t="b">
         <v>0</v>
@@ -6535,13 +6538,13 @@
         <v>851</v>
       </c>
       <c r="J119" s="0" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="K119" s="0" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="L119" s="0">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120">
@@ -6549,7 +6552,7 @@
         <v>9</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>120</v>
+        <v>847</v>
       </c>
       <c r="C120" s="0">
         <v>0.32500000000000001</v>
@@ -6557,7 +6560,7 @@
       <c r="D120" s="0"/>
       <c r="E120" s="0"/>
       <c r="F120" s="0" t="s">
-        <v>685</v>
+        <v>847</v>
       </c>
       <c r="G120" s="0" t="b">
         <v>0</v>
@@ -6577,19 +6580,19 @@
         <v>9</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="C121" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>344</v>
+        <v>497</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>686</v>
+        <v>846</v>
       </c>
       <c r="G121" s="0" t="b">
         <v>0</v>
@@ -6599,13 +6602,13 @@
         <v>851</v>
       </c>
       <c r="J121" s="0" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="K121" s="0" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="L121" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="122">
@@ -6613,7 +6616,7 @@
         <v>9</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>122</v>
+        <v>847</v>
       </c>
       <c r="C122" s="0">
         <v>0.32500000000000001</v>
@@ -6621,7 +6624,7 @@
       <c r="D122" s="0"/>
       <c r="E122" s="0"/>
       <c r="F122" s="0" t="s">
-        <v>687</v>
+        <v>847</v>
       </c>
       <c r="G122" s="0" t="b">
         <v>0</v>
@@ -6641,19 +6644,19 @@
         <v>9</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="C123" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>345</v>
+        <v>455</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>486</v>
+        <v>455</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>688</v>
+        <v>846</v>
       </c>
       <c r="G123" s="0" t="b">
         <v>0</v>
@@ -6663,13 +6666,13 @@
         <v>851</v>
       </c>
       <c r="J123" s="0" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="K123" s="0" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="L123" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -6677,7 +6680,7 @@
         <v>9</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>124</v>
+        <v>847</v>
       </c>
       <c r="C124" s="0">
         <v>0.32500000000000001</v>
@@ -6685,7 +6688,7 @@
       <c r="D124" s="0"/>
       <c r="E124" s="0"/>
       <c r="F124" s="0" t="s">
-        <v>689</v>
+        <v>847</v>
       </c>
       <c r="G124" s="0" t="b">
         <v>0</v>
@@ -6705,19 +6708,19 @@
         <v>9</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="C125" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>346</v>
+        <v>528</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>487</v>
+        <v>528</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>690</v>
+        <v>846</v>
       </c>
       <c r="G125" s="0" t="b">
         <v>0</v>
@@ -6727,13 +6730,13 @@
         <v>851</v>
       </c>
       <c r="J125" s="0" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="K125" s="0" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="L125" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126">
@@ -6741,7 +6744,7 @@
         <v>9</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>126</v>
+        <v>847</v>
       </c>
       <c r="C126" s="0">
         <v>0.32500000000000001</v>
@@ -6749,7 +6752,7 @@
       <c r="D126" s="0"/>
       <c r="E126" s="0"/>
       <c r="F126" s="0" t="s">
-        <v>691</v>
+        <v>847</v>
       </c>
       <c r="G126" s="0" t="b">
         <v>0</v>
@@ -6769,19 +6772,19 @@
         <v>9</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="C127" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>347</v>
+        <v>499</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>692</v>
+        <v>846</v>
       </c>
       <c r="G127" s="0" t="b">
         <v>0</v>
@@ -6791,13 +6794,13 @@
         <v>851</v>
       </c>
       <c r="J127" s="0" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="K127" s="0" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="L127" s="0">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128">
@@ -6805,7 +6808,7 @@
         <v>0</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>128</v>
+        <v>847</v>
       </c>
       <c r="C128" s="0">
         <v>10</v>
@@ -6813,7 +6816,7 @@
       <c r="D128" s="0"/>
       <c r="E128" s="0"/>
       <c r="F128" s="0" t="s">
-        <v>693</v>
+        <v>847</v>
       </c>
       <c r="G128" s="0" t="b">
         <v>0</v>
@@ -6833,19 +6836,19 @@
         <v>10</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>129</v>
+        <v>253</v>
       </c>
       <c r="C129" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>348</v>
+        <v>522</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>489</v>
+        <v>522</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>694</v>
+        <v>846</v>
       </c>
       <c r="G129" s="0" t="b">
         <v>0</v>
@@ -6855,13 +6858,13 @@
         <v>851</v>
       </c>
       <c r="J129" s="0" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="K129" s="0" t="s">
-        <v>873</v>
+        <v>881</v>
       </c>
       <c r="L129" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -6869,7 +6872,7 @@
         <v>10</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>130</v>
+        <v>847</v>
       </c>
       <c r="C130" s="0">
         <v>0.32500000000000001</v>
@@ -6877,7 +6880,7 @@
       <c r="D130" s="0"/>
       <c r="E130" s="0"/>
       <c r="F130" s="0" t="s">
-        <v>695</v>
+        <v>847</v>
       </c>
       <c r="G130" s="0" t="b">
         <v>0</v>
@@ -6897,19 +6900,19 @@
         <v>10</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>131</v>
+        <v>253</v>
       </c>
       <c r="C131" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>349</v>
+        <v>517</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>490</v>
+        <v>517</v>
       </c>
       <c r="F131" s="0" t="s">
-        <v>696</v>
+        <v>846</v>
       </c>
       <c r="G131" s="0" t="b">
         <v>0</v>
@@ -6919,13 +6922,13 @@
         <v>851</v>
       </c>
       <c r="J131" s="0" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="K131" s="0" t="s">
-        <v>873</v>
+        <v>881</v>
       </c>
       <c r="L131" s="0">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132">
@@ -6933,7 +6936,7 @@
         <v>10</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>132</v>
+        <v>847</v>
       </c>
       <c r="C132" s="0">
         <v>0.32500000000000001</v>
@@ -6941,7 +6944,7 @@
       <c r="D132" s="0"/>
       <c r="E132" s="0"/>
       <c r="F132" s="0" t="s">
-        <v>697</v>
+        <v>847</v>
       </c>
       <c r="G132" s="0" t="b">
         <v>0</v>
@@ -6961,19 +6964,19 @@
         <v>10</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>133</v>
+        <v>253</v>
       </c>
       <c r="C133" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>350</v>
+        <v>488</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F133" s="0" t="s">
-        <v>698</v>
+        <v>846</v>
       </c>
       <c r="G133" s="0" t="b">
         <v>0</v>
@@ -6983,13 +6986,13 @@
         <v>851</v>
       </c>
       <c r="J133" s="0" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="K133" s="0" t="s">
-        <v>873</v>
+        <v>881</v>
       </c>
       <c r="L133" s="0">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="134">
@@ -6997,7 +7000,7 @@
         <v>10</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>134</v>
+        <v>847</v>
       </c>
       <c r="C134" s="0">
         <v>0.32500000000000001</v>
@@ -7005,7 +7008,7 @@
       <c r="D134" s="0"/>
       <c r="E134" s="0"/>
       <c r="F134" s="0" t="s">
-        <v>699</v>
+        <v>847</v>
       </c>
       <c r="G134" s="0" t="b">
         <v>0</v>
@@ -7025,19 +7028,19 @@
         <v>10</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>135</v>
+        <v>253</v>
       </c>
       <c r="C135" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>351</v>
+        <v>485</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="F135" s="0" t="s">
-        <v>700</v>
+        <v>846</v>
       </c>
       <c r="G135" s="0" t="b">
         <v>0</v>
@@ -7047,13 +7050,13 @@
         <v>851</v>
       </c>
       <c r="J135" s="0" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="K135" s="0" t="s">
-        <v>873</v>
+        <v>881</v>
       </c>
       <c r="L135" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136">
@@ -7061,7 +7064,7 @@
         <v>10</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>136</v>
+        <v>847</v>
       </c>
       <c r="C136" s="0">
         <v>0.32500000000000001</v>
@@ -7069,7 +7072,7 @@
       <c r="D136" s="0"/>
       <c r="E136" s="0"/>
       <c r="F136" s="0" t="s">
-        <v>701</v>
+        <v>847</v>
       </c>
       <c r="G136" s="0" t="b">
         <v>0</v>
@@ -7089,19 +7092,19 @@
         <v>10</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>137</v>
+        <v>253</v>
       </c>
       <c r="C137" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>352</v>
+        <v>551</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>493</v>
+        <v>551</v>
       </c>
       <c r="F137" s="0" t="s">
-        <v>702</v>
+        <v>846</v>
       </c>
       <c r="G137" s="0" t="b">
         <v>0</v>
@@ -7111,13 +7114,13 @@
         <v>851</v>
       </c>
       <c r="J137" s="0" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="K137" s="0" t="s">
-        <v>873</v>
+        <v>881</v>
       </c>
       <c r="L137" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138">
@@ -7125,7 +7128,7 @@
         <v>10</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>138</v>
+        <v>847</v>
       </c>
       <c r="C138" s="0">
         <v>0.32500000000000001</v>
@@ -7133,7 +7136,7 @@
       <c r="D138" s="0"/>
       <c r="E138" s="0"/>
       <c r="F138" s="0" t="s">
-        <v>703</v>
+        <v>847</v>
       </c>
       <c r="G138" s="0" t="b">
         <v>0</v>
@@ -7153,19 +7156,19 @@
         <v>10</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>139</v>
+        <v>253</v>
       </c>
       <c r="C139" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>353</v>
+        <v>548</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
       <c r="F139" s="0" t="s">
-        <v>704</v>
+        <v>846</v>
       </c>
       <c r="G139" s="0" t="b">
         <v>0</v>
@@ -7175,13 +7178,13 @@
         <v>851</v>
       </c>
       <c r="J139" s="0" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="K139" s="0" t="s">
-        <v>873</v>
+        <v>881</v>
       </c>
       <c r="L139" s="0">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140">
@@ -7189,7 +7192,7 @@
         <v>10</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>140</v>
+        <v>847</v>
       </c>
       <c r="C140" s="0">
         <v>0.32500000000000001</v>
@@ -7197,7 +7200,7 @@
       <c r="D140" s="0"/>
       <c r="E140" s="0"/>
       <c r="F140" s="0" t="s">
-        <v>705</v>
+        <v>847</v>
       </c>
       <c r="G140" s="0" t="b">
         <v>0</v>
@@ -7217,19 +7220,19 @@
         <v>10</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>141</v>
+        <v>253</v>
       </c>
       <c r="C141" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>354</v>
+        <v>523</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>495</v>
+        <v>523</v>
       </c>
       <c r="F141" s="0" t="s">
-        <v>706</v>
+        <v>846</v>
       </c>
       <c r="G141" s="0" t="b">
         <v>0</v>
@@ -7239,13 +7242,13 @@
         <v>851</v>
       </c>
       <c r="J141" s="0" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="K141" s="0" t="s">
-        <v>873</v>
+        <v>881</v>
       </c>
       <c r="L141" s="0">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142">
@@ -7253,7 +7256,7 @@
         <v>0</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>142</v>
+        <v>847</v>
       </c>
       <c r="C142" s="0">
         <v>10</v>
@@ -7261,7 +7264,7 @@
       <c r="D142" s="0"/>
       <c r="E142" s="0"/>
       <c r="F142" s="0" t="s">
-        <v>707</v>
+        <v>847</v>
       </c>
       <c r="G142" s="0" t="b">
         <v>0</v>
@@ -7281,19 +7284,19 @@
         <v>11</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>143</v>
+        <v>281</v>
       </c>
       <c r="C143" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>355</v>
+        <v>419</v>
       </c>
       <c r="E143" s="0" t="s">
-        <v>496</v>
+        <v>560</v>
       </c>
       <c r="F143" s="0" t="s">
-        <v>708</v>
+        <v>846</v>
       </c>
       <c r="G143" s="0" t="b">
         <v>0</v>
@@ -7303,10 +7306,10 @@
         <v>851</v>
       </c>
       <c r="J143" s="0" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="K143" s="0" t="s">
-        <v>874</v>
+        <v>883</v>
       </c>
       <c r="L143" s="0">
         <v>3</v>
@@ -7317,7 +7320,7 @@
         <v>11</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>144</v>
+        <v>847</v>
       </c>
       <c r="C144" s="0">
         <v>0.32500000000000001</v>
@@ -7325,7 +7328,7 @@
       <c r="D144" s="0"/>
       <c r="E144" s="0"/>
       <c r="F144" s="0" t="s">
-        <v>709</v>
+        <v>847</v>
       </c>
       <c r="G144" s="0" t="b">
         <v>0</v>
@@ -7345,19 +7348,19 @@
         <v>11</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>145</v>
+        <v>281</v>
       </c>
       <c r="C145" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>356</v>
+        <v>420</v>
       </c>
       <c r="E145" s="0" t="s">
-        <v>497</v>
+        <v>561</v>
       </c>
       <c r="F145" s="0" t="s">
-        <v>710</v>
+        <v>846</v>
       </c>
       <c r="G145" s="0" t="b">
         <v>0</v>
@@ -7367,10 +7370,10 @@
         <v>851</v>
       </c>
       <c r="J145" s="0" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="K145" s="0" t="s">
-        <v>874</v>
+        <v>883</v>
       </c>
       <c r="L145" s="0">
         <v>11</v>
@@ -7381,7 +7384,7 @@
         <v>11</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>146</v>
+        <v>847</v>
       </c>
       <c r="C146" s="0">
         <v>0.32500000000000001</v>
@@ -7389,7 +7392,7 @@
       <c r="D146" s="0"/>
       <c r="E146" s="0"/>
       <c r="F146" s="0" t="s">
-        <v>711</v>
+        <v>847</v>
       </c>
       <c r="G146" s="0" t="b">
         <v>0</v>
@@ -7409,19 +7412,19 @@
         <v>11</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>147</v>
+        <v>281</v>
       </c>
       <c r="C147" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>357</v>
+        <v>418</v>
       </c>
       <c r="E147" s="0" t="s">
-        <v>498</v>
+        <v>559</v>
       </c>
       <c r="F147" s="0" t="s">
-        <v>712</v>
+        <v>846</v>
       </c>
       <c r="G147" s="0" t="b">
         <v>0</v>
@@ -7431,10 +7434,10 @@
         <v>851</v>
       </c>
       <c r="J147" s="0" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="K147" s="0" t="s">
-        <v>874</v>
+        <v>883</v>
       </c>
       <c r="L147" s="0">
         <v>13</v>
@@ -7445,7 +7448,7 @@
         <v>11</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>148</v>
+        <v>847</v>
       </c>
       <c r="C148" s="0">
         <v>0.32500000000000001</v>
@@ -7453,7 +7456,7 @@
       <c r="D148" s="0"/>
       <c r="E148" s="0"/>
       <c r="F148" s="0" t="s">
-        <v>713</v>
+        <v>847</v>
       </c>
       <c r="G148" s="0" t="b">
         <v>0</v>
@@ -7473,19 +7476,19 @@
         <v>11</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>149</v>
+        <v>281</v>
       </c>
       <c r="C149" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>358</v>
+        <v>422</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>499</v>
+        <v>563</v>
       </c>
       <c r="F149" s="0" t="s">
-        <v>714</v>
+        <v>846</v>
       </c>
       <c r="G149" s="0" t="b">
         <v>0</v>
@@ -7495,13 +7498,13 @@
         <v>851</v>
       </c>
       <c r="J149" s="0" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="K149" s="0" t="s">
-        <v>874</v>
+        <v>883</v>
       </c>
       <c r="L149" s="0">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150">
@@ -7509,7 +7512,7 @@
         <v>11</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>150</v>
+        <v>847</v>
       </c>
       <c r="C150" s="0">
         <v>0.32500000000000001</v>
@@ -7517,7 +7520,7 @@
       <c r="D150" s="0"/>
       <c r="E150" s="0"/>
       <c r="F150" s="0" t="s">
-        <v>715</v>
+        <v>847</v>
       </c>
       <c r="G150" s="0" t="b">
         <v>0</v>
@@ -7537,19 +7540,19 @@
         <v>11</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>151</v>
+        <v>281</v>
       </c>
       <c r="C151" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>359</v>
+        <v>305</v>
       </c>
       <c r="E151" s="0" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="F151" s="0" t="s">
-        <v>716</v>
+        <v>846</v>
       </c>
       <c r="G151" s="0" t="b">
         <v>0</v>
@@ -7559,13 +7562,13 @@
         <v>851</v>
       </c>
       <c r="J151" s="0" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="K151" s="0" t="s">
-        <v>874</v>
+        <v>883</v>
       </c>
       <c r="L151" s="0">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152">
@@ -7573,7 +7576,7 @@
         <v>11</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>152</v>
+        <v>847</v>
       </c>
       <c r="C152" s="0">
         <v>0.32500000000000001</v>
@@ -7581,7 +7584,7 @@
       <c r="D152" s="0"/>
       <c r="E152" s="0"/>
       <c r="F152" s="0" t="s">
-        <v>717</v>
+        <v>847</v>
       </c>
       <c r="G152" s="0" t="b">
         <v>0</v>
@@ -7601,19 +7604,19 @@
         <v>11</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>153</v>
+        <v>281</v>
       </c>
       <c r="C153" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="E153" s="0" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="F153" s="0" t="s">
-        <v>718</v>
+        <v>846</v>
       </c>
       <c r="G153" s="0" t="b">
         <v>0</v>
@@ -7623,13 +7626,13 @@
         <v>851</v>
       </c>
       <c r="J153" s="0" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="K153" s="0" t="s">
-        <v>874</v>
+        <v>883</v>
       </c>
       <c r="L153" s="0">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -7637,7 +7640,7 @@
         <v>11</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>154</v>
+        <v>847</v>
       </c>
       <c r="C154" s="0">
         <v>0.32500000000000001</v>
@@ -7645,7 +7648,7 @@
       <c r="D154" s="0"/>
       <c r="E154" s="0"/>
       <c r="F154" s="0" t="s">
-        <v>719</v>
+        <v>847</v>
       </c>
       <c r="G154" s="0" t="b">
         <v>0</v>
@@ -7665,19 +7668,19 @@
         <v>11</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>155</v>
+        <v>281</v>
       </c>
       <c r="C155" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>361</v>
+        <v>299</v>
       </c>
       <c r="E155" s="0" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="F155" s="0" t="s">
-        <v>720</v>
+        <v>846</v>
       </c>
       <c r="G155" s="0" t="b">
         <v>0</v>
@@ -7687,13 +7690,13 @@
         <v>851</v>
       </c>
       <c r="J155" s="0" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="K155" s="0" t="s">
-        <v>874</v>
+        <v>883</v>
       </c>
       <c r="L155" s="0">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156">
@@ -7701,7 +7704,7 @@
         <v>0</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>156</v>
+        <v>847</v>
       </c>
       <c r="C156" s="0">
         <v>10</v>
@@ -7709,7 +7712,7 @@
       <c r="D156" s="0"/>
       <c r="E156" s="0"/>
       <c r="F156" s="0" t="s">
-        <v>721</v>
+        <v>847</v>
       </c>
       <c r="G156" s="0" t="b">
         <v>0</v>
@@ -7729,19 +7732,19 @@
         <v>12</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>157</v>
+        <v>239</v>
       </c>
       <c r="C157" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>362</v>
+        <v>538</v>
       </c>
       <c r="E157" s="0" t="s">
-        <v>503</v>
+        <v>538</v>
       </c>
       <c r="F157" s="0" t="s">
-        <v>722</v>
+        <v>846</v>
       </c>
       <c r="G157" s="0" t="b">
         <v>0</v>
@@ -7751,13 +7754,13 @@
         <v>851</v>
       </c>
       <c r="J157" s="0" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="K157" s="0" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="L157" s="0">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="158">
@@ -7765,7 +7768,7 @@
         <v>12</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>158</v>
+        <v>847</v>
       </c>
       <c r="C158" s="0">
         <v>0.32500000000000001</v>
@@ -7773,7 +7776,7 @@
       <c r="D158" s="0"/>
       <c r="E158" s="0"/>
       <c r="F158" s="0" t="s">
-        <v>723</v>
+        <v>847</v>
       </c>
       <c r="G158" s="0" t="b">
         <v>0</v>
@@ -7793,19 +7796,19 @@
         <v>12</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>159</v>
+        <v>239</v>
       </c>
       <c r="C159" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>363</v>
+        <v>543</v>
       </c>
       <c r="E159" s="0" t="s">
-        <v>504</v>
+        <v>543</v>
       </c>
       <c r="F159" s="0" t="s">
-        <v>724</v>
+        <v>846</v>
       </c>
       <c r="G159" s="0" t="b">
         <v>0</v>
@@ -7815,13 +7818,13 @@
         <v>851</v>
       </c>
       <c r="J159" s="0" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="K159" s="0" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="L159" s="0">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="160">
@@ -7829,7 +7832,7 @@
         <v>12</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>160</v>
+        <v>847</v>
       </c>
       <c r="C160" s="0">
         <v>0.32500000000000001</v>
@@ -7837,7 +7840,7 @@
       <c r="D160" s="0"/>
       <c r="E160" s="0"/>
       <c r="F160" s="0" t="s">
-        <v>725</v>
+        <v>847</v>
       </c>
       <c r="G160" s="0" t="b">
         <v>0</v>
@@ -7857,19 +7860,19 @@
         <v>12</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>161</v>
+        <v>239</v>
       </c>
       <c r="C161" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>364</v>
+        <v>544</v>
       </c>
       <c r="E161" s="0" t="s">
-        <v>505</v>
+        <v>544</v>
       </c>
       <c r="F161" s="0" t="s">
-        <v>726</v>
+        <v>846</v>
       </c>
       <c r="G161" s="0" t="b">
         <v>0</v>
@@ -7879,13 +7882,13 @@
         <v>851</v>
       </c>
       <c r="J161" s="0" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="K161" s="0" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="L161" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="162">
@@ -7893,7 +7896,7 @@
         <v>12</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>162</v>
+        <v>847</v>
       </c>
       <c r="C162" s="0">
         <v>0.32500000000000001</v>
@@ -7901,7 +7904,7 @@
       <c r="D162" s="0"/>
       <c r="E162" s="0"/>
       <c r="F162" s="0" t="s">
-        <v>727</v>
+        <v>847</v>
       </c>
       <c r="G162" s="0" t="b">
         <v>0</v>
@@ -7921,19 +7924,19 @@
         <v>12</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>163</v>
+        <v>239</v>
       </c>
       <c r="C163" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>365</v>
+        <v>505</v>
       </c>
       <c r="E163" s="0" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F163" s="0" t="s">
-        <v>728</v>
+        <v>846</v>
       </c>
       <c r="G163" s="0" t="b">
         <v>0</v>
@@ -7943,13 +7946,13 @@
         <v>851</v>
       </c>
       <c r="J163" s="0" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="K163" s="0" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="L163" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164">
@@ -7957,7 +7960,7 @@
         <v>12</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>164</v>
+        <v>847</v>
       </c>
       <c r="C164" s="0">
         <v>0.32500000000000001</v>
@@ -7965,7 +7968,7 @@
       <c r="D164" s="0"/>
       <c r="E164" s="0"/>
       <c r="F164" s="0" t="s">
-        <v>729</v>
+        <v>847</v>
       </c>
       <c r="G164" s="0" t="b">
         <v>0</v>
@@ -7985,19 +7988,19 @@
         <v>12</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>165</v>
+        <v>239</v>
       </c>
       <c r="C165" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>366</v>
+        <v>504</v>
       </c>
       <c r="E165" s="0" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F165" s="0" t="s">
-        <v>730</v>
+        <v>846</v>
       </c>
       <c r="G165" s="0" t="b">
         <v>0</v>
@@ -8007,13 +8010,13 @@
         <v>851</v>
       </c>
       <c r="J165" s="0" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="K165" s="0" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="L165" s="0">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="166">
@@ -8021,7 +8024,7 @@
         <v>12</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>166</v>
+        <v>847</v>
       </c>
       <c r="C166" s="0">
         <v>0.32500000000000001</v>
@@ -8029,7 +8032,7 @@
       <c r="D166" s="0"/>
       <c r="E166" s="0"/>
       <c r="F166" s="0" t="s">
-        <v>731</v>
+        <v>847</v>
       </c>
       <c r="G166" s="0" t="b">
         <v>0</v>
@@ -8049,19 +8052,19 @@
         <v>12</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>167</v>
+        <v>239</v>
       </c>
       <c r="C167" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D167" s="0" t="s">
-        <v>367</v>
+        <v>471</v>
       </c>
       <c r="E167" s="0" t="s">
-        <v>508</v>
+        <v>471</v>
       </c>
       <c r="F167" s="0" t="s">
-        <v>732</v>
+        <v>846</v>
       </c>
       <c r="G167" s="0" t="b">
         <v>0</v>
@@ -8071,13 +8074,13 @@
         <v>851</v>
       </c>
       <c r="J167" s="0" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="K167" s="0" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="L167" s="0">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="168">
@@ -8085,7 +8088,7 @@
         <v>12</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>168</v>
+        <v>847</v>
       </c>
       <c r="C168" s="0">
         <v>0.32500000000000001</v>
@@ -8093,7 +8096,7 @@
       <c r="D168" s="0"/>
       <c r="E168" s="0"/>
       <c r="F168" s="0" t="s">
-        <v>733</v>
+        <v>847</v>
       </c>
       <c r="G168" s="0" t="b">
         <v>0</v>
@@ -8113,19 +8116,19 @@
         <v>12</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>169</v>
+        <v>239</v>
       </c>
       <c r="C169" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D169" s="0" t="s">
-        <v>368</v>
+        <v>541</v>
       </c>
       <c r="E169" s="0" t="s">
-        <v>509</v>
+        <v>541</v>
       </c>
       <c r="F169" s="0" t="s">
-        <v>734</v>
+        <v>846</v>
       </c>
       <c r="G169" s="0" t="b">
         <v>0</v>
@@ -8135,13 +8138,13 @@
         <v>851</v>
       </c>
       <c r="J169" s="0" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="K169" s="0" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="L169" s="0">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="170">
@@ -8149,7 +8152,7 @@
         <v>0</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>170</v>
+        <v>847</v>
       </c>
       <c r="C170" s="0">
         <v>10</v>
@@ -8157,7 +8160,7 @@
       <c r="D170" s="0"/>
       <c r="E170" s="0"/>
       <c r="F170" s="0" t="s">
-        <v>735</v>
+        <v>847</v>
       </c>
       <c r="G170" s="0" t="b">
         <v>0</v>
@@ -8177,19 +8180,19 @@
         <v>13</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>171</v>
+        <v>253</v>
       </c>
       <c r="C171" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D171" s="0" t="s">
-        <v>369</v>
+        <v>545</v>
       </c>
       <c r="E171" s="0" t="s">
-        <v>510</v>
+        <v>545</v>
       </c>
       <c r="F171" s="0" t="s">
-        <v>736</v>
+        <v>846</v>
       </c>
       <c r="G171" s="0" t="b">
         <v>0</v>
@@ -8199,13 +8202,13 @@
         <v>851</v>
       </c>
       <c r="J171" s="0" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="K171" s="0" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="L171" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="172">
@@ -8213,7 +8216,7 @@
         <v>13</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>172</v>
+        <v>847</v>
       </c>
       <c r="C172" s="0">
         <v>0.32500000000000001</v>
@@ -8221,7 +8224,7 @@
       <c r="D172" s="0"/>
       <c r="E172" s="0"/>
       <c r="F172" s="0" t="s">
-        <v>737</v>
+        <v>847</v>
       </c>
       <c r="G172" s="0" t="b">
         <v>0</v>
@@ -8241,19 +8244,19 @@
         <v>13</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>173</v>
+        <v>253</v>
       </c>
       <c r="C173" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D173" s="0" t="s">
-        <v>370</v>
+        <v>546</v>
       </c>
       <c r="E173" s="0" t="s">
-        <v>511</v>
+        <v>546</v>
       </c>
       <c r="F173" s="0" t="s">
-        <v>738</v>
+        <v>846</v>
       </c>
       <c r="G173" s="0" t="b">
         <v>0</v>
@@ -8263,13 +8266,13 @@
         <v>851</v>
       </c>
       <c r="J173" s="0" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="K173" s="0" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="L173" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="174">
@@ -8277,7 +8280,7 @@
         <v>13</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>174</v>
+        <v>847</v>
       </c>
       <c r="C174" s="0">
         <v>0.32500000000000001</v>
@@ -8285,7 +8288,7 @@
       <c r="D174" s="0"/>
       <c r="E174" s="0"/>
       <c r="F174" s="0" t="s">
-        <v>739</v>
+        <v>847</v>
       </c>
       <c r="G174" s="0" t="b">
         <v>0</v>
@@ -8305,19 +8308,19 @@
         <v>13</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>175</v>
+        <v>253</v>
       </c>
       <c r="C175" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D175" s="0" t="s">
-        <v>371</v>
+        <v>547</v>
       </c>
       <c r="E175" s="0" t="s">
-        <v>512</v>
+        <v>547</v>
       </c>
       <c r="F175" s="0" t="s">
-        <v>740</v>
+        <v>846</v>
       </c>
       <c r="G175" s="0" t="b">
         <v>0</v>
@@ -8327,13 +8330,13 @@
         <v>851</v>
       </c>
       <c r="J175" s="0" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="K175" s="0" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="L175" s="0">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="176">
@@ -8341,7 +8344,7 @@
         <v>13</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>176</v>
+        <v>847</v>
       </c>
       <c r="C176" s="0">
         <v>0.32500000000000001</v>
@@ -8349,7 +8352,7 @@
       <c r="D176" s="0"/>
       <c r="E176" s="0"/>
       <c r="F176" s="0" t="s">
-        <v>741</v>
+        <v>847</v>
       </c>
       <c r="G176" s="0" t="b">
         <v>0</v>
@@ -8369,19 +8372,19 @@
         <v>13</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>177</v>
+        <v>253</v>
       </c>
       <c r="C177" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D177" s="0" t="s">
-        <v>372</v>
+        <v>518</v>
       </c>
       <c r="E177" s="0" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="F177" s="0" t="s">
-        <v>742</v>
+        <v>846</v>
       </c>
       <c r="G177" s="0" t="b">
         <v>0</v>
@@ -8391,13 +8394,13 @@
         <v>851</v>
       </c>
       <c r="J177" s="0" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="K177" s="0" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="L177" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="178">
@@ -8405,7 +8408,7 @@
         <v>13</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>178</v>
+        <v>847</v>
       </c>
       <c r="C178" s="0">
         <v>0.32500000000000001</v>
@@ -8413,7 +8416,7 @@
       <c r="D178" s="0"/>
       <c r="E178" s="0"/>
       <c r="F178" s="0" t="s">
-        <v>743</v>
+        <v>847</v>
       </c>
       <c r="G178" s="0" t="b">
         <v>0</v>
@@ -8433,19 +8436,19 @@
         <v>13</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>179</v>
+        <v>253</v>
       </c>
       <c r="C179" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D179" s="0" t="s">
-        <v>373</v>
+        <v>483</v>
       </c>
       <c r="E179" s="0" t="s">
-        <v>514</v>
+        <v>483</v>
       </c>
       <c r="F179" s="0" t="s">
-        <v>744</v>
+        <v>846</v>
       </c>
       <c r="G179" s="0" t="b">
         <v>0</v>
@@ -8455,13 +8458,13 @@
         <v>851</v>
       </c>
       <c r="J179" s="0" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="K179" s="0" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="L179" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="180">
@@ -8469,7 +8472,7 @@
         <v>13</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>180</v>
+        <v>847</v>
       </c>
       <c r="C180" s="0">
         <v>0.32500000000000001</v>
@@ -8477,7 +8480,7 @@
       <c r="D180" s="0"/>
       <c r="E180" s="0"/>
       <c r="F180" s="0" t="s">
-        <v>745</v>
+        <v>847</v>
       </c>
       <c r="G180" s="0" t="b">
         <v>0</v>
@@ -8497,19 +8500,19 @@
         <v>13</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c r="C181" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D181" s="0" t="s">
-        <v>374</v>
+        <v>550</v>
       </c>
       <c r="E181" s="0" t="s">
-        <v>515</v>
+        <v>550</v>
       </c>
       <c r="F181" s="0" t="s">
-        <v>746</v>
+        <v>846</v>
       </c>
       <c r="G181" s="0" t="b">
         <v>0</v>
@@ -8519,10 +8522,10 @@
         <v>851</v>
       </c>
       <c r="J181" s="0" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="K181" s="0" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="L181" s="0">
         <v>11</v>
@@ -8533,7 +8536,7 @@
         <v>13</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>182</v>
+        <v>847</v>
       </c>
       <c r="C182" s="0">
         <v>0.32500000000000001</v>
@@ -8541,7 +8544,7 @@
       <c r="D182" s="0"/>
       <c r="E182" s="0"/>
       <c r="F182" s="0" t="s">
-        <v>747</v>
+        <v>847</v>
       </c>
       <c r="G182" s="0" t="b">
         <v>0</v>
@@ -8561,19 +8564,19 @@
         <v>13</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>183</v>
+        <v>253</v>
       </c>
       <c r="C183" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D183" s="0" t="s">
-        <v>375</v>
+        <v>549</v>
       </c>
       <c r="E183" s="0" t="s">
-        <v>516</v>
+        <v>549</v>
       </c>
       <c r="F183" s="0" t="s">
-        <v>748</v>
+        <v>846</v>
       </c>
       <c r="G183" s="0" t="b">
         <v>0</v>
@@ -8583,13 +8586,13 @@
         <v>851</v>
       </c>
       <c r="J183" s="0" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="K183" s="0" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="L183" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="184">
@@ -8597,7 +8600,7 @@
         <v>0</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>184</v>
+        <v>847</v>
       </c>
       <c r="C184" s="0">
         <v>10</v>
@@ -8605,7 +8608,7 @@
       <c r="D184" s="0"/>
       <c r="E184" s="0"/>
       <c r="F184" s="0" t="s">
-        <v>749</v>
+        <v>847</v>
       </c>
       <c r="G184" s="0" t="b">
         <v>0</v>
@@ -8625,19 +8628,19 @@
         <v>14</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>185</v>
+        <v>267</v>
       </c>
       <c r="C185" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>376</v>
+        <v>534</v>
       </c>
       <c r="E185" s="0" t="s">
-        <v>517</v>
+        <v>534</v>
       </c>
       <c r="F185" s="0" t="s">
-        <v>750</v>
+        <v>846</v>
       </c>
       <c r="G185" s="0" t="b">
         <v>0</v>
@@ -8647,13 +8650,13 @@
         <v>851</v>
       </c>
       <c r="J185" s="0" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="K185" s="0" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="L185" s="0">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="186">
@@ -8661,7 +8664,7 @@
         <v>14</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>186</v>
+        <v>847</v>
       </c>
       <c r="C186" s="0">
         <v>0.32500000000000001</v>
@@ -8669,7 +8672,7 @@
       <c r="D186" s="0"/>
       <c r="E186" s="0"/>
       <c r="F186" s="0" t="s">
-        <v>751</v>
+        <v>847</v>
       </c>
       <c r="G186" s="0" t="b">
         <v>0</v>
@@ -8689,19 +8692,19 @@
         <v>14</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>187</v>
+        <v>267</v>
       </c>
       <c r="C187" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D187" s="0" t="s">
-        <v>377</v>
+        <v>535</v>
       </c>
       <c r="E187" s="0" t="s">
-        <v>518</v>
+        <v>535</v>
       </c>
       <c r="F187" s="0" t="s">
-        <v>752</v>
+        <v>846</v>
       </c>
       <c r="G187" s="0" t="b">
         <v>0</v>
@@ -8711,13 +8714,13 @@
         <v>851</v>
       </c>
       <c r="J187" s="0" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="K187" s="0" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="L187" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="188">
@@ -8725,7 +8728,7 @@
         <v>14</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>188</v>
+        <v>847</v>
       </c>
       <c r="C188" s="0">
         <v>0.32500000000000001</v>
@@ -8733,7 +8736,7 @@
       <c r="D188" s="0"/>
       <c r="E188" s="0"/>
       <c r="F188" s="0" t="s">
-        <v>753</v>
+        <v>847</v>
       </c>
       <c r="G188" s="0" t="b">
         <v>0</v>
@@ -8753,19 +8756,19 @@
         <v>14</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>189</v>
+        <v>267</v>
       </c>
       <c r="C189" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D189" s="0" t="s">
-        <v>378</v>
+        <v>552</v>
       </c>
       <c r="E189" s="0" t="s">
-        <v>519</v>
+        <v>552</v>
       </c>
       <c r="F189" s="0" t="s">
-        <v>754</v>
+        <v>846</v>
       </c>
       <c r="G189" s="0" t="b">
         <v>0</v>
@@ -8775,13 +8778,13 @@
         <v>851</v>
       </c>
       <c r="J189" s="0" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="K189" s="0" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="L189" s="0">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="190">
@@ -8789,7 +8792,7 @@
         <v>14</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>190</v>
+        <v>847</v>
       </c>
       <c r="C190" s="0">
         <v>0.32500000000000001</v>
@@ -8797,7 +8800,7 @@
       <c r="D190" s="0"/>
       <c r="E190" s="0"/>
       <c r="F190" s="0" t="s">
-        <v>755</v>
+        <v>847</v>
       </c>
       <c r="G190" s="0" t="b">
         <v>0</v>
@@ -8817,19 +8820,19 @@
         <v>14</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>191</v>
+        <v>267</v>
       </c>
       <c r="C191" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D191" s="0" t="s">
-        <v>379</v>
+        <v>536</v>
       </c>
       <c r="E191" s="0" t="s">
-        <v>520</v>
+        <v>536</v>
       </c>
       <c r="F191" s="0" t="s">
-        <v>756</v>
+        <v>846</v>
       </c>
       <c r="G191" s="0" t="b">
         <v>0</v>
@@ -8839,13 +8842,13 @@
         <v>851</v>
       </c>
       <c r="J191" s="0" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="K191" s="0" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="L191" s="0">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="192">
@@ -8853,7 +8856,7 @@
         <v>14</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>192</v>
+        <v>847</v>
       </c>
       <c r="C192" s="0">
         <v>0.32500000000000001</v>
@@ -8861,7 +8864,7 @@
       <c r="D192" s="0"/>
       <c r="E192" s="0"/>
       <c r="F192" s="0" t="s">
-        <v>757</v>
+        <v>847</v>
       </c>
       <c r="G192" s="0" t="b">
         <v>0</v>
@@ -8881,19 +8884,19 @@
         <v>14</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>193</v>
+        <v>267</v>
       </c>
       <c r="C193" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D193" s="0" t="s">
-        <v>380</v>
+        <v>533</v>
       </c>
       <c r="E193" s="0" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="F193" s="0" t="s">
-        <v>758</v>
+        <v>846</v>
       </c>
       <c r="G193" s="0" t="b">
         <v>0</v>
@@ -8903,13 +8906,13 @@
         <v>851</v>
       </c>
       <c r="J193" s="0" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="K193" s="0" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="L193" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="194">
@@ -8917,7 +8920,7 @@
         <v>14</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>194</v>
+        <v>847</v>
       </c>
       <c r="C194" s="0">
         <v>0.32500000000000001</v>
@@ -8925,7 +8928,7 @@
       <c r="D194" s="0"/>
       <c r="E194" s="0"/>
       <c r="F194" s="0" t="s">
-        <v>759</v>
+        <v>847</v>
       </c>
       <c r="G194" s="0" t="b">
         <v>0</v>
@@ -8945,19 +8948,19 @@
         <v>14</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>195</v>
+        <v>267</v>
       </c>
       <c r="C195" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D195" s="0" t="s">
-        <v>381</v>
+        <v>558</v>
       </c>
       <c r="E195" s="0" t="s">
-        <v>522</v>
+        <v>558</v>
       </c>
       <c r="F195" s="0" t="s">
-        <v>760</v>
+        <v>846</v>
       </c>
       <c r="G195" s="0" t="b">
         <v>0</v>
@@ -8967,13 +8970,13 @@
         <v>851</v>
       </c>
       <c r="J195" s="0" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="K195" s="0" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="L195" s="0">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="196">
@@ -8981,7 +8984,7 @@
         <v>14</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>196</v>
+        <v>847</v>
       </c>
       <c r="C196" s="0">
         <v>0.32500000000000001</v>
@@ -8989,7 +8992,7 @@
       <c r="D196" s="0"/>
       <c r="E196" s="0"/>
       <c r="F196" s="0" t="s">
-        <v>761</v>
+        <v>847</v>
       </c>
       <c r="G196" s="0" t="b">
         <v>0</v>
@@ -9009,19 +9012,19 @@
         <v>14</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>197</v>
+        <v>267</v>
       </c>
       <c r="C197" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D197" s="0" t="s">
-        <v>382</v>
+        <v>480</v>
       </c>
       <c r="E197" s="0" t="s">
-        <v>523</v>
+        <v>480</v>
       </c>
       <c r="F197" s="0" t="s">
-        <v>762</v>
+        <v>846</v>
       </c>
       <c r="G197" s="0" t="b">
         <v>0</v>
@@ -9031,13 +9034,13 @@
         <v>851</v>
       </c>
       <c r="J197" s="0" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="K197" s="0" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="L197" s="0">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -9045,7 +9048,7 @@
         <v>0</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>198</v>
+        <v>847</v>
       </c>
       <c r="C198" s="0">
         <v>10</v>
@@ -9053,7 +9056,7 @@
       <c r="D198" s="0"/>
       <c r="E198" s="0"/>
       <c r="F198" s="0" t="s">
-        <v>763</v>
+        <v>847</v>
       </c>
       <c r="G198" s="0" t="b">
         <v>0</v>
@@ -9073,19 +9076,19 @@
         <v>15</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C199" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D199" s="0" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E199" s="0" t="s">
-        <v>524</v>
+        <v>549</v>
       </c>
       <c r="F199" s="0" t="s">
-        <v>764</v>
+        <v>846</v>
       </c>
       <c r="G199" s="0" t="b">
         <v>0</v>
@@ -9095,13 +9098,13 @@
         <v>851</v>
       </c>
       <c r="J199" s="0" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="K199" s="0" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="L199" s="0">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="200">
@@ -9109,7 +9112,7 @@
         <v>15</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>200</v>
+        <v>847</v>
       </c>
       <c r="C200" s="0">
         <v>0.32500000000000001</v>
@@ -9117,7 +9120,7 @@
       <c r="D200" s="0"/>
       <c r="E200" s="0"/>
       <c r="F200" s="0" t="s">
-        <v>765</v>
+        <v>847</v>
       </c>
       <c r="G200" s="0" t="b">
         <v>0</v>
@@ -9137,19 +9140,19 @@
         <v>15</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C201" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D201" s="0" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="E201" s="0" t="s">
-        <v>525</v>
+        <v>485</v>
       </c>
       <c r="F201" s="0" t="s">
-        <v>766</v>
+        <v>846</v>
       </c>
       <c r="G201" s="0" t="b">
         <v>0</v>
@@ -9159,13 +9162,13 @@
         <v>851</v>
       </c>
       <c r="J201" s="0" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="K201" s="0" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="L201" s="0">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="202">
@@ -9173,7 +9176,7 @@
         <v>15</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>202</v>
+        <v>847</v>
       </c>
       <c r="C202" s="0">
         <v>0.32500000000000001</v>
@@ -9181,7 +9184,7 @@
       <c r="D202" s="0"/>
       <c r="E202" s="0"/>
       <c r="F202" s="0" t="s">
-        <v>767</v>
+        <v>847</v>
       </c>
       <c r="G202" s="0" t="b">
         <v>0</v>
@@ -9201,19 +9204,19 @@
         <v>15</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C203" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D203" s="0" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="E203" s="0" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="F203" s="0" t="s">
-        <v>768</v>
+        <v>846</v>
       </c>
       <c r="G203" s="0" t="b">
         <v>0</v>
@@ -9223,13 +9226,13 @@
         <v>851</v>
       </c>
       <c r="J203" s="0" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="K203" s="0" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="L203" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="204">
@@ -9237,7 +9240,7 @@
         <v>15</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>204</v>
+        <v>847</v>
       </c>
       <c r="C204" s="0">
         <v>0.32500000000000001</v>
@@ -9245,7 +9248,7 @@
       <c r="D204" s="0"/>
       <c r="E204" s="0"/>
       <c r="F204" s="0" t="s">
-        <v>769</v>
+        <v>847</v>
       </c>
       <c r="G204" s="0" t="b">
         <v>0</v>
@@ -9265,19 +9268,19 @@
         <v>15</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C205" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D205" s="0" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E205" s="0" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F205" s="0" t="s">
-        <v>770</v>
+        <v>846</v>
       </c>
       <c r="G205" s="0" t="b">
         <v>0</v>
@@ -9287,13 +9290,13 @@
         <v>851</v>
       </c>
       <c r="J205" s="0" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="K205" s="0" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="L205" s="0">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="206">
@@ -9301,7 +9304,7 @@
         <v>15</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>206</v>
+        <v>847</v>
       </c>
       <c r="C206" s="0">
         <v>0.32500000000000001</v>
@@ -9309,7 +9312,7 @@
       <c r="D206" s="0"/>
       <c r="E206" s="0"/>
       <c r="F206" s="0" t="s">
-        <v>771</v>
+        <v>847</v>
       </c>
       <c r="G206" s="0" t="b">
         <v>0</v>
@@ -9329,19 +9332,19 @@
         <v>15</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C207" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D207" s="0" t="s">
-        <v>387</v>
+        <v>347</v>
       </c>
       <c r="E207" s="0" t="s">
-        <v>528</v>
+        <v>488</v>
       </c>
       <c r="F207" s="0" t="s">
-        <v>772</v>
+        <v>846</v>
       </c>
       <c r="G207" s="0" t="b">
         <v>0</v>
@@ -9351,13 +9354,13 @@
         <v>851</v>
       </c>
       <c r="J207" s="0" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="K207" s="0" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="L207" s="0">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="208">
@@ -9365,7 +9368,7 @@
         <v>15</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>208</v>
+        <v>847</v>
       </c>
       <c r="C208" s="0">
         <v>0.32500000000000001</v>
@@ -9373,7 +9376,7 @@
       <c r="D208" s="0"/>
       <c r="E208" s="0"/>
       <c r="F208" s="0" t="s">
-        <v>773</v>
+        <v>847</v>
       </c>
       <c r="G208" s="0" t="b">
         <v>0</v>
@@ -9393,19 +9396,19 @@
         <v>15</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="C209" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D209" s="0" t="s">
-        <v>388</v>
+        <v>341</v>
       </c>
       <c r="E209" s="0" t="s">
-        <v>529</v>
+        <v>550</v>
       </c>
       <c r="F209" s="0" t="s">
-        <v>774</v>
+        <v>846</v>
       </c>
       <c r="G209" s="0" t="b">
         <v>0</v>
@@ -9415,13 +9418,13 @@
         <v>851</v>
       </c>
       <c r="J209" s="0" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="K209" s="0" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="L209" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="210">
@@ -9429,7 +9432,7 @@
         <v>15</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>210</v>
+        <v>847</v>
       </c>
       <c r="C210" s="0">
         <v>0.32500000000000001</v>
@@ -9437,7 +9440,7 @@
       <c r="D210" s="0"/>
       <c r="E210" s="0"/>
       <c r="F210" s="0" t="s">
-        <v>775</v>
+        <v>847</v>
       </c>
       <c r="G210" s="0" t="b">
         <v>0</v>
@@ -9457,19 +9460,19 @@
         <v>15</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="C211" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D211" s="0" t="s">
-        <v>389</v>
+        <v>342</v>
       </c>
       <c r="E211" s="0" t="s">
-        <v>530</v>
+        <v>483</v>
       </c>
       <c r="F211" s="0" t="s">
-        <v>776</v>
+        <v>846</v>
       </c>
       <c r="G211" s="0" t="b">
         <v>0</v>
@@ -9479,13 +9482,13 @@
         <v>851</v>
       </c>
       <c r="J211" s="0" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="K211" s="0" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="L211" s="0">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="212">
@@ -9493,7 +9496,7 @@
         <v>0</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>212</v>
+        <v>847</v>
       </c>
       <c r="C212" s="0">
         <v>10</v>
@@ -9501,7 +9504,7 @@
       <c r="D212" s="0"/>
       <c r="E212" s="0"/>
       <c r="F212" s="0" t="s">
-        <v>777</v>
+        <v>847</v>
       </c>
       <c r="G212" s="0" t="b">
         <v>0</v>
@@ -9521,19 +9524,19 @@
         <v>16</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>213</v>
+        <v>169</v>
       </c>
       <c r="C213" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D213" s="0" t="s">
-        <v>390</v>
+        <v>363</v>
       </c>
       <c r="E213" s="0" t="s">
-        <v>531</v>
+        <v>504</v>
       </c>
       <c r="F213" s="0" t="s">
-        <v>778</v>
+        <v>846</v>
       </c>
       <c r="G213" s="0" t="b">
         <v>0</v>
@@ -9543,13 +9546,13 @@
         <v>851</v>
       </c>
       <c r="J213" s="0" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="K213" s="0" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="L213" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="214">
@@ -9557,7 +9560,7 @@
         <v>16</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>214</v>
+        <v>847</v>
       </c>
       <c r="C214" s="0">
         <v>0.32500000000000001</v>
@@ -9565,7 +9568,7 @@
       <c r="D214" s="0"/>
       <c r="E214" s="0"/>
       <c r="F214" s="0" t="s">
-        <v>779</v>
+        <v>847</v>
       </c>
       <c r="G214" s="0" t="b">
         <v>0</v>
@@ -9585,19 +9588,19 @@
         <v>16</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>215</v>
+        <v>169</v>
       </c>
       <c r="C215" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D215" s="0" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="E215" s="0" t="s">
-        <v>532</v>
+        <v>509</v>
       </c>
       <c r="F215" s="0" t="s">
-        <v>780</v>
+        <v>846</v>
       </c>
       <c r="G215" s="0" t="b">
         <v>0</v>
@@ -9607,13 +9610,13 @@
         <v>851</v>
       </c>
       <c r="J215" s="0" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="K215" s="0" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="L215" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="216">
@@ -9621,7 +9624,7 @@
         <v>16</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>216</v>
+        <v>847</v>
       </c>
       <c r="C216" s="0">
         <v>0.32500000000000001</v>
@@ -9629,7 +9632,7 @@
       <c r="D216" s="0"/>
       <c r="E216" s="0"/>
       <c r="F216" s="0" t="s">
-        <v>781</v>
+        <v>847</v>
       </c>
       <c r="G216" s="0" t="b">
         <v>0</v>
@@ -9649,19 +9652,19 @@
         <v>16</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="C217" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D217" s="0" t="s">
-        <v>392</v>
+        <v>333</v>
       </c>
       <c r="E217" s="0" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="F217" s="0" t="s">
-        <v>782</v>
+        <v>846</v>
       </c>
       <c r="G217" s="0" t="b">
         <v>0</v>
@@ -9671,13 +9674,13 @@
         <v>851</v>
       </c>
       <c r="J217" s="0" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="K217" s="0" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="L217" s="0">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="218">
@@ -9685,7 +9688,7 @@
         <v>16</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>218</v>
+        <v>847</v>
       </c>
       <c r="C218" s="0">
         <v>0.32500000000000001</v>
@@ -9693,7 +9696,7 @@
       <c r="D218" s="0"/>
       <c r="E218" s="0"/>
       <c r="F218" s="0" t="s">
-        <v>783</v>
+        <v>847</v>
       </c>
       <c r="G218" s="0" t="b">
         <v>0</v>
@@ -9713,19 +9716,19 @@
         <v>16</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>219</v>
+        <v>169</v>
       </c>
       <c r="C219" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D219" s="0" t="s">
-        <v>393</v>
+        <v>365</v>
       </c>
       <c r="E219" s="0" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="F219" s="0" t="s">
-        <v>784</v>
+        <v>846</v>
       </c>
       <c r="G219" s="0" t="b">
         <v>0</v>
@@ -9735,13 +9738,13 @@
         <v>851</v>
       </c>
       <c r="J219" s="0" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="K219" s="0" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="L219" s="0">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="220">
@@ -9749,7 +9752,7 @@
         <v>16</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>220</v>
+        <v>847</v>
       </c>
       <c r="C220" s="0">
         <v>0.32500000000000001</v>
@@ -9757,7 +9760,7 @@
       <c r="D220" s="0"/>
       <c r="E220" s="0"/>
       <c r="F220" s="0" t="s">
-        <v>785</v>
+        <v>847</v>
       </c>
       <c r="G220" s="0" t="b">
         <v>0</v>
@@ -9777,19 +9780,19 @@
         <v>16</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>221</v>
+        <v>169</v>
       </c>
       <c r="C221" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D221" s="0" t="s">
-        <v>394</v>
+        <v>329</v>
       </c>
       <c r="E221" s="0" t="s">
-        <v>535</v>
+        <v>470</v>
       </c>
       <c r="F221" s="0" t="s">
-        <v>786</v>
+        <v>846</v>
       </c>
       <c r="G221" s="0" t="b">
         <v>0</v>
@@ -9799,13 +9802,13 @@
         <v>851</v>
       </c>
       <c r="J221" s="0" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="K221" s="0" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="L221" s="0">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
@@ -9813,7 +9816,7 @@
         <v>16</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>222</v>
+        <v>847</v>
       </c>
       <c r="C222" s="0">
         <v>0.32500000000000001</v>
@@ -9821,7 +9824,7 @@
       <c r="D222" s="0"/>
       <c r="E222" s="0"/>
       <c r="F222" s="0" t="s">
-        <v>787</v>
+        <v>847</v>
       </c>
       <c r="G222" s="0" t="b">
         <v>0</v>
@@ -9841,19 +9844,19 @@
         <v>16</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="C223" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D223" s="0" t="s">
-        <v>395</v>
+        <v>331</v>
       </c>
       <c r="E223" s="0" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="F223" s="0" t="s">
-        <v>788</v>
+        <v>846</v>
       </c>
       <c r="G223" s="0" t="b">
         <v>0</v>
@@ -9863,13 +9866,13 @@
         <v>851</v>
       </c>
       <c r="J223" s="0" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="K223" s="0" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="L223" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="224">
@@ -9877,7 +9880,7 @@
         <v>16</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>224</v>
+        <v>847</v>
       </c>
       <c r="C224" s="0">
         <v>0.32500000000000001</v>
@@ -9885,7 +9888,7 @@
       <c r="D224" s="0"/>
       <c r="E224" s="0"/>
       <c r="F224" s="0" t="s">
-        <v>789</v>
+        <v>847</v>
       </c>
       <c r="G224" s="0" t="b">
         <v>0</v>
@@ -9905,19 +9908,19 @@
         <v>16</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>225</v>
+        <v>169</v>
       </c>
       <c r="C225" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D225" s="0" t="s">
-        <v>396</v>
+        <v>362</v>
       </c>
       <c r="E225" s="0" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="F225" s="0" t="s">
-        <v>790</v>
+        <v>846</v>
       </c>
       <c r="G225" s="0" t="b">
         <v>0</v>
@@ -9927,13 +9930,13 @@
         <v>851</v>
       </c>
       <c r="J225" s="0" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="K225" s="0" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="L225" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="226">
@@ -9941,7 +9944,7 @@
         <v>0</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>226</v>
+        <v>847</v>
       </c>
       <c r="C226" s="0">
         <v>10</v>
@@ -9949,7 +9952,7 @@
       <c r="D226" s="0"/>
       <c r="E226" s="0"/>
       <c r="F226" s="0" t="s">
-        <v>791</v>
+        <v>847</v>
       </c>
       <c r="G226" s="0" t="b">
         <v>0</v>
@@ -9969,19 +9972,19 @@
         <v>17</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="C227" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D227" s="0" t="s">
-        <v>397</v>
+        <v>297</v>
       </c>
       <c r="E227" s="0" t="s">
-        <v>538</v>
+        <v>455</v>
       </c>
       <c r="F227" s="0" t="s">
-        <v>792</v>
+        <v>846</v>
       </c>
       <c r="G227" s="0" t="b">
         <v>0</v>
@@ -9991,13 +9994,13 @@
         <v>851</v>
       </c>
       <c r="J227" s="0" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="K227" s="0" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="L227" s="0">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -10005,7 +10008,7 @@
         <v>17</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>228</v>
+        <v>847</v>
       </c>
       <c r="C228" s="0">
         <v>0.32500000000000001</v>
@@ -10013,7 +10016,7 @@
       <c r="D228" s="0"/>
       <c r="E228" s="0"/>
       <c r="F228" s="0" t="s">
-        <v>793</v>
+        <v>847</v>
       </c>
       <c r="G228" s="0" t="b">
         <v>0</v>
@@ -10033,19 +10036,19 @@
         <v>17</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="C229" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D229" s="0" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="E229" s="0" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="F229" s="0" t="s">
-        <v>794</v>
+        <v>846</v>
       </c>
       <c r="G229" s="0" t="b">
         <v>0</v>
@@ -10055,13 +10058,13 @@
         <v>851</v>
       </c>
       <c r="J229" s="0" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="K229" s="0" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="L229" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="230">
@@ -10069,7 +10072,7 @@
         <v>17</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>230</v>
+        <v>847</v>
       </c>
       <c r="C230" s="0">
         <v>0.32500000000000001</v>
@@ -10077,7 +10080,7 @@
       <c r="D230" s="0"/>
       <c r="E230" s="0"/>
       <c r="F230" s="0" t="s">
-        <v>795</v>
+        <v>847</v>
       </c>
       <c r="G230" s="0" t="b">
         <v>0</v>
@@ -10097,19 +10100,19 @@
         <v>17</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="C231" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D231" s="0" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="E231" s="0" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="F231" s="0" t="s">
-        <v>796</v>
+        <v>846</v>
       </c>
       <c r="G231" s="0" t="b">
         <v>0</v>
@@ -10119,13 +10122,13 @@
         <v>851</v>
       </c>
       <c r="J231" s="0" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="K231" s="0" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="L231" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="232">
@@ -10133,7 +10136,7 @@
         <v>17</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>232</v>
+        <v>847</v>
       </c>
       <c r="C232" s="0">
         <v>0.32500000000000001</v>
@@ -10141,7 +10144,7 @@
       <c r="D232" s="0"/>
       <c r="E232" s="0"/>
       <c r="F232" s="0" t="s">
-        <v>797</v>
+        <v>847</v>
       </c>
       <c r="G232" s="0" t="b">
         <v>0</v>
@@ -10161,19 +10164,19 @@
         <v>17</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="C233" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D233" s="0" t="s">
-        <v>400</v>
+        <v>295</v>
       </c>
       <c r="E233" s="0" t="s">
-        <v>541</v>
+        <v>499</v>
       </c>
       <c r="F233" s="0" t="s">
-        <v>798</v>
+        <v>846</v>
       </c>
       <c r="G233" s="0" t="b">
         <v>0</v>
@@ -10183,13 +10186,13 @@
         <v>851</v>
       </c>
       <c r="J233" s="0" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="K233" s="0" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="L233" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="234">
@@ -10197,7 +10200,7 @@
         <v>17</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>234</v>
+        <v>847</v>
       </c>
       <c r="C234" s="0">
         <v>0.32500000000000001</v>
@@ -10205,7 +10208,7 @@
       <c r="D234" s="0"/>
       <c r="E234" s="0"/>
       <c r="F234" s="0" t="s">
-        <v>799</v>
+        <v>847</v>
       </c>
       <c r="G234" s="0" t="b">
         <v>0</v>
@@ -10225,19 +10228,19 @@
         <v>17</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="C235" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D235" s="0" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="E235" s="0" t="s">
-        <v>542</v>
+        <v>524</v>
       </c>
       <c r="F235" s="0" t="s">
-        <v>800</v>
+        <v>846</v>
       </c>
       <c r="G235" s="0" t="b">
         <v>0</v>
@@ -10247,13 +10250,13 @@
         <v>851</v>
       </c>
       <c r="J235" s="0" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="K235" s="0" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="L235" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="236">
@@ -10261,7 +10264,7 @@
         <v>17</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>236</v>
+        <v>847</v>
       </c>
       <c r="C236" s="0">
         <v>0.32500000000000001</v>
@@ -10269,7 +10272,7 @@
       <c r="D236" s="0"/>
       <c r="E236" s="0"/>
       <c r="F236" s="0" t="s">
-        <v>801</v>
+        <v>847</v>
       </c>
       <c r="G236" s="0" t="b">
         <v>0</v>
@@ -10289,19 +10292,19 @@
         <v>17</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="C237" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D237" s="0" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="E237" s="0" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
       <c r="F237" s="0" t="s">
-        <v>802</v>
+        <v>846</v>
       </c>
       <c r="G237" s="0" t="b">
         <v>0</v>
@@ -10311,13 +10314,13 @@
         <v>851</v>
       </c>
       <c r="J237" s="0" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="K237" s="0" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="L237" s="0">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="238">
@@ -10325,7 +10328,7 @@
         <v>17</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>238</v>
+        <v>847</v>
       </c>
       <c r="C238" s="0">
         <v>0.32500000000000001</v>
@@ -10333,7 +10336,7 @@
       <c r="D238" s="0"/>
       <c r="E238" s="0"/>
       <c r="F238" s="0" t="s">
-        <v>803</v>
+        <v>847</v>
       </c>
       <c r="G238" s="0" t="b">
         <v>0</v>
@@ -10353,19 +10356,19 @@
         <v>17</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="C239" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D239" s="0" t="s">
-        <v>403</v>
+        <v>296</v>
       </c>
       <c r="E239" s="0" t="s">
-        <v>544</v>
+        <v>497</v>
       </c>
       <c r="F239" s="0" t="s">
-        <v>804</v>
+        <v>846</v>
       </c>
       <c r="G239" s="0" t="b">
         <v>0</v>
@@ -10375,13 +10378,13 @@
         <v>851</v>
       </c>
       <c r="J239" s="0" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="K239" s="0" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="L239" s="0">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="240">
@@ -10389,7 +10392,7 @@
         <v>0</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>240</v>
+        <v>847</v>
       </c>
       <c r="C240" s="0">
         <v>10</v>
@@ -10397,7 +10400,7 @@
       <c r="D240" s="0"/>
       <c r="E240" s="0"/>
       <c r="F240" s="0" t="s">
-        <v>805</v>
+        <v>847</v>
       </c>
       <c r="G240" s="0" t="b">
         <v>0</v>
@@ -10417,19 +10420,19 @@
         <v>18</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>241</v>
+        <v>183</v>
       </c>
       <c r="C241" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D241" s="0" t="s">
-        <v>404</v>
+        <v>559</v>
       </c>
       <c r="E241" s="0" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="F241" s="0" t="s">
-        <v>806</v>
+        <v>846</v>
       </c>
       <c r="G241" s="0" t="b">
         <v>0</v>
@@ -10442,10 +10445,10 @@
         <v>861</v>
       </c>
       <c r="K241" s="0" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="L241" s="0">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="242">
@@ -10453,7 +10456,7 @@
         <v>18</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>242</v>
+        <v>847</v>
       </c>
       <c r="C242" s="0">
         <v>0.32500000000000001</v>
@@ -10461,7 +10464,7 @@
       <c r="D242" s="0"/>
       <c r="E242" s="0"/>
       <c r="F242" s="0" t="s">
-        <v>807</v>
+        <v>847</v>
       </c>
       <c r="G242" s="0" t="b">
         <v>0</v>
@@ -10481,19 +10484,19 @@
         <v>18</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>243</v>
+        <v>183</v>
       </c>
       <c r="C243" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D243" s="0" t="s">
-        <v>405</v>
+        <v>564</v>
       </c>
       <c r="E243" s="0" t="s">
-        <v>546</v>
+        <v>564</v>
       </c>
       <c r="F243" s="0" t="s">
-        <v>808</v>
+        <v>846</v>
       </c>
       <c r="G243" s="0" t="b">
         <v>0</v>
@@ -10506,10 +10509,10 @@
         <v>861</v>
       </c>
       <c r="K243" s="0" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="L243" s="0">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="244">
@@ -10517,7 +10520,7 @@
         <v>18</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>244</v>
+        <v>847</v>
       </c>
       <c r="C244" s="0">
         <v>0.32500000000000001</v>
@@ -10525,7 +10528,7 @@
       <c r="D244" s="0"/>
       <c r="E244" s="0"/>
       <c r="F244" s="0" t="s">
-        <v>809</v>
+        <v>847</v>
       </c>
       <c r="G244" s="0" t="b">
         <v>0</v>
@@ -10545,19 +10548,19 @@
         <v>18</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>245</v>
+        <v>183</v>
       </c>
       <c r="C245" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D245" s="0" t="s">
-        <v>406</v>
+        <v>511</v>
       </c>
       <c r="E245" s="0" t="s">
-        <v>547</v>
+        <v>511</v>
       </c>
       <c r="F245" s="0" t="s">
-        <v>810</v>
+        <v>846</v>
       </c>
       <c r="G245" s="0" t="b">
         <v>0</v>
@@ -10570,10 +10573,10 @@
         <v>861</v>
       </c>
       <c r="K245" s="0" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="L245" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="246">
@@ -10581,7 +10584,7 @@
         <v>18</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>246</v>
+        <v>847</v>
       </c>
       <c r="C246" s="0">
         <v>0.32500000000000001</v>
@@ -10589,7 +10592,7 @@
       <c r="D246" s="0"/>
       <c r="E246" s="0"/>
       <c r="F246" s="0" t="s">
-        <v>811</v>
+        <v>847</v>
       </c>
       <c r="G246" s="0" t="b">
         <v>0</v>
@@ -10609,19 +10612,19 @@
         <v>18</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>247</v>
+        <v>183</v>
       </c>
       <c r="C247" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D247" s="0" t="s">
-        <v>407</v>
+        <v>512</v>
       </c>
       <c r="E247" s="0" t="s">
-        <v>548</v>
+        <v>512</v>
       </c>
       <c r="F247" s="0" t="s">
-        <v>812</v>
+        <v>846</v>
       </c>
       <c r="G247" s="0" t="b">
         <v>0</v>
@@ -10634,10 +10637,10 @@
         <v>861</v>
       </c>
       <c r="K247" s="0" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="L247" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -10645,7 +10648,7 @@
         <v>18</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>248</v>
+        <v>847</v>
       </c>
       <c r="C248" s="0">
         <v>0.32500000000000001</v>
@@ -10653,7 +10656,7 @@
       <c r="D248" s="0"/>
       <c r="E248" s="0"/>
       <c r="F248" s="0" t="s">
-        <v>813</v>
+        <v>847</v>
       </c>
       <c r="G248" s="0" t="b">
         <v>0</v>
@@ -10673,19 +10676,19 @@
         <v>18</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>249</v>
+        <v>183</v>
       </c>
       <c r="C249" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D249" s="0" t="s">
-        <v>408</v>
+        <v>491</v>
       </c>
       <c r="E249" s="0" t="s">
-        <v>549</v>
+        <v>491</v>
       </c>
       <c r="F249" s="0" t="s">
-        <v>814</v>
+        <v>846</v>
       </c>
       <c r="G249" s="0" t="b">
         <v>0</v>
@@ -10698,10 +10701,10 @@
         <v>861</v>
       </c>
       <c r="K249" s="0" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="L249" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="250">
@@ -10709,7 +10712,7 @@
         <v>18</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>250</v>
+        <v>847</v>
       </c>
       <c r="C250" s="0">
         <v>0.32500000000000001</v>
@@ -10717,7 +10720,7 @@
       <c r="D250" s="0"/>
       <c r="E250" s="0"/>
       <c r="F250" s="0" t="s">
-        <v>815</v>
+        <v>847</v>
       </c>
       <c r="G250" s="0" t="b">
         <v>0</v>
@@ -10737,19 +10740,19 @@
         <v>18</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>251</v>
+        <v>183</v>
       </c>
       <c r="C251" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D251" s="0" t="s">
-        <v>409</v>
+        <v>495</v>
       </c>
       <c r="E251" s="0" t="s">
-        <v>550</v>
+        <v>495</v>
       </c>
       <c r="F251" s="0" t="s">
-        <v>816</v>
+        <v>846</v>
       </c>
       <c r="G251" s="0" t="b">
         <v>0</v>
@@ -10762,10 +10765,10 @@
         <v>861</v>
       </c>
       <c r="K251" s="0" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="L251" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="252">
@@ -10773,7 +10776,7 @@
         <v>18</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>252</v>
+        <v>847</v>
       </c>
       <c r="C252" s="0">
         <v>0.32500000000000001</v>
@@ -10781,7 +10784,7 @@
       <c r="D252" s="0"/>
       <c r="E252" s="0"/>
       <c r="F252" s="0" t="s">
-        <v>817</v>
+        <v>847</v>
       </c>
       <c r="G252" s="0" t="b">
         <v>0</v>
@@ -10801,19 +10804,19 @@
         <v>18</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>253</v>
+        <v>183</v>
       </c>
       <c r="C253" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D253" s="0" t="s">
-        <v>410</v>
+        <v>563</v>
       </c>
       <c r="E253" s="0" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="F253" s="0" t="s">
-        <v>818</v>
+        <v>846</v>
       </c>
       <c r="G253" s="0" t="b">
         <v>0</v>
@@ -10826,10 +10829,10 @@
         <v>861</v>
       </c>
       <c r="K253" s="0" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="L253" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254">
@@ -10837,7 +10840,7 @@
         <v>0</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>254</v>
+        <v>847</v>
       </c>
       <c r="C254" s="0">
         <v>10</v>
@@ -10845,7 +10848,7 @@
       <c r="D254" s="0"/>
       <c r="E254" s="0"/>
       <c r="F254" s="0" t="s">
-        <v>819</v>
+        <v>847</v>
       </c>
       <c r="G254" s="0" t="b">
         <v>0</v>
@@ -10865,19 +10868,19 @@
         <v>19</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>255</v>
+        <v>155</v>
       </c>
       <c r="C255" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D255" s="0" t="s">
-        <v>411</v>
+        <v>525</v>
       </c>
       <c r="E255" s="0" t="s">
-        <v>552</v>
+        <v>525</v>
       </c>
       <c r="F255" s="0" t="s">
-        <v>820</v>
+        <v>846</v>
       </c>
       <c r="G255" s="0" t="b">
         <v>0</v>
@@ -10890,10 +10893,10 @@
         <v>861</v>
       </c>
       <c r="K255" s="0" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="L255" s="0">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="256">
@@ -10901,7 +10904,7 @@
         <v>19</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>256</v>
+        <v>847</v>
       </c>
       <c r="C256" s="0">
         <v>0.32500000000000001</v>
@@ -10909,7 +10912,7 @@
       <c r="D256" s="0"/>
       <c r="E256" s="0"/>
       <c r="F256" s="0" t="s">
-        <v>821</v>
+        <v>847</v>
       </c>
       <c r="G256" s="0" t="b">
         <v>0</v>
@@ -10929,19 +10932,19 @@
         <v>19</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>257</v>
+        <v>155</v>
       </c>
       <c r="C257" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D257" s="0" t="s">
-        <v>412</v>
+        <v>526</v>
       </c>
       <c r="E257" s="0" t="s">
-        <v>553</v>
+        <v>526</v>
       </c>
       <c r="F257" s="0" t="s">
-        <v>822</v>
+        <v>846</v>
       </c>
       <c r="G257" s="0" t="b">
         <v>0</v>
@@ -10954,10 +10957,10 @@
         <v>861</v>
       </c>
       <c r="K257" s="0" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="L257" s="0">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="258">
@@ -10965,7 +10968,7 @@
         <v>19</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>258</v>
+        <v>847</v>
       </c>
       <c r="C258" s="0">
         <v>0.32500000000000001</v>
@@ -10973,7 +10976,7 @@
       <c r="D258" s="0"/>
       <c r="E258" s="0"/>
       <c r="F258" s="0" t="s">
-        <v>823</v>
+        <v>847</v>
       </c>
       <c r="G258" s="0" t="b">
         <v>0</v>
@@ -10993,19 +10996,19 @@
         <v>19</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>259</v>
+        <v>155</v>
       </c>
       <c r="C259" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D259" s="0" t="s">
-        <v>413</v>
+        <v>459</v>
       </c>
       <c r="E259" s="0" t="s">
-        <v>554</v>
+        <v>459</v>
       </c>
       <c r="F259" s="0" t="s">
-        <v>824</v>
+        <v>846</v>
       </c>
       <c r="G259" s="0" t="b">
         <v>0</v>
@@ -11018,10 +11021,10 @@
         <v>861</v>
       </c>
       <c r="K259" s="0" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="L259" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="260">
@@ -11029,7 +11032,7 @@
         <v>19</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>260</v>
+        <v>847</v>
       </c>
       <c r="C260" s="0">
         <v>0.32500000000000001</v>
@@ -11037,7 +11040,7 @@
       <c r="D260" s="0"/>
       <c r="E260" s="0"/>
       <c r="F260" s="0" t="s">
-        <v>825</v>
+        <v>847</v>
       </c>
       <c r="G260" s="0" t="b">
         <v>0</v>
@@ -11057,19 +11060,19 @@
         <v>19</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>261</v>
+        <v>155</v>
       </c>
       <c r="C261" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D261" s="0" t="s">
-        <v>414</v>
+        <v>500</v>
       </c>
       <c r="E261" s="0" t="s">
-        <v>555</v>
+        <v>500</v>
       </c>
       <c r="F261" s="0" t="s">
-        <v>826</v>
+        <v>846</v>
       </c>
       <c r="G261" s="0" t="b">
         <v>0</v>
@@ -11082,7 +11085,7 @@
         <v>861</v>
       </c>
       <c r="K261" s="0" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="L261" s="0">
         <v>4</v>
@@ -11093,7 +11096,7 @@
         <v>19</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>262</v>
+        <v>847</v>
       </c>
       <c r="C262" s="0">
         <v>0.32500000000000001</v>
@@ -11101,7 +11104,7 @@
       <c r="D262" s="0"/>
       <c r="E262" s="0"/>
       <c r="F262" s="0" t="s">
-        <v>827</v>
+        <v>847</v>
       </c>
       <c r="G262" s="0" t="b">
         <v>0</v>
@@ -11121,19 +11124,19 @@
         <v>19</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>263</v>
+        <v>155</v>
       </c>
       <c r="C263" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D263" s="0" t="s">
-        <v>415</v>
+        <v>530</v>
       </c>
       <c r="E263" s="0" t="s">
-        <v>556</v>
+        <v>530</v>
       </c>
       <c r="F263" s="0" t="s">
-        <v>828</v>
+        <v>846</v>
       </c>
       <c r="G263" s="0" t="b">
         <v>0</v>
@@ -11146,10 +11149,10 @@
         <v>861</v>
       </c>
       <c r="K263" s="0" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="L263" s="0">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264">
@@ -11157,7 +11160,7 @@
         <v>19</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>264</v>
+        <v>847</v>
       </c>
       <c r="C264" s="0">
         <v>0.32500000000000001</v>
@@ -11165,7 +11168,7 @@
       <c r="D264" s="0"/>
       <c r="E264" s="0"/>
       <c r="F264" s="0" t="s">
-        <v>829</v>
+        <v>847</v>
       </c>
       <c r="G264" s="0" t="b">
         <v>0</v>
@@ -11185,19 +11188,19 @@
         <v>19</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>265</v>
+        <v>155</v>
       </c>
       <c r="C265" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D265" s="0" t="s">
-        <v>416</v>
+        <v>454</v>
       </c>
       <c r="E265" s="0" t="s">
-        <v>557</v>
+        <v>454</v>
       </c>
       <c r="F265" s="0" t="s">
-        <v>830</v>
+        <v>846</v>
       </c>
       <c r="G265" s="0" t="b">
         <v>0</v>
@@ -11210,10 +11213,10 @@
         <v>861</v>
       </c>
       <c r="K265" s="0" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="L265" s="0">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="266">
@@ -11221,7 +11224,7 @@
         <v>19</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>266</v>
+        <v>847</v>
       </c>
       <c r="C266" s="0">
         <v>0.32500000000000001</v>
@@ -11229,7 +11232,7 @@
       <c r="D266" s="0"/>
       <c r="E266" s="0"/>
       <c r="F266" s="0" t="s">
-        <v>831</v>
+        <v>847</v>
       </c>
       <c r="G266" s="0" t="b">
         <v>0</v>
@@ -11249,19 +11252,19 @@
         <v>19</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>267</v>
+        <v>155</v>
       </c>
       <c r="C267" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D267" s="0" t="s">
-        <v>417</v>
+        <v>524</v>
       </c>
       <c r="E267" s="0" t="s">
-        <v>558</v>
+        <v>524</v>
       </c>
       <c r="F267" s="0" t="s">
-        <v>832</v>
+        <v>846</v>
       </c>
       <c r="G267" s="0" t="b">
         <v>0</v>
@@ -11274,10 +11277,10 @@
         <v>861</v>
       </c>
       <c r="K267" s="0" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="L267" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="268">
@@ -11285,7 +11288,7 @@
         <v>0</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>268</v>
+        <v>847</v>
       </c>
       <c r="C268" s="0">
         <v>10</v>
@@ -11293,7 +11296,7 @@
       <c r="D268" s="0"/>
       <c r="E268" s="0"/>
       <c r="F268" s="0" t="s">
-        <v>833</v>
+        <v>847</v>
       </c>
       <c r="G268" s="0" t="b">
         <v>0</v>
@@ -11313,19 +11316,19 @@
         <v>20</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>269</v>
+        <v>225</v>
       </c>
       <c r="C269" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D269" s="0" t="s">
-        <v>418</v>
+        <v>339</v>
       </c>
       <c r="E269" s="0" t="s">
-        <v>559</v>
+        <v>480</v>
       </c>
       <c r="F269" s="0" t="s">
-        <v>834</v>
+        <v>846</v>
       </c>
       <c r="G269" s="0" t="b">
         <v>0</v>
@@ -11338,10 +11341,10 @@
         <v>862</v>
       </c>
       <c r="K269" s="0" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="L269" s="0">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -11349,7 +11352,7 @@
         <v>20</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>270</v>
+        <v>847</v>
       </c>
       <c r="C270" s="0">
         <v>0.32500000000000001</v>
@@ -11357,7 +11360,7 @@
       <c r="D270" s="0"/>
       <c r="E270" s="0"/>
       <c r="F270" s="0" t="s">
-        <v>835</v>
+        <v>847</v>
       </c>
       <c r="G270" s="0" t="b">
         <v>0</v>
@@ -11377,19 +11380,19 @@
         <v>20</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>271</v>
+        <v>225</v>
       </c>
       <c r="C271" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D271" s="0" t="s">
-        <v>419</v>
+        <v>395</v>
       </c>
       <c r="E271" s="0" t="s">
-        <v>560</v>
+        <v>536</v>
       </c>
       <c r="F271" s="0" t="s">
-        <v>836</v>
+        <v>846</v>
       </c>
       <c r="G271" s="0" t="b">
         <v>0</v>
@@ -11402,10 +11405,10 @@
         <v>862</v>
       </c>
       <c r="K271" s="0" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="L271" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="272">
@@ -11413,7 +11416,7 @@
         <v>20</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>272</v>
+        <v>847</v>
       </c>
       <c r="C272" s="0">
         <v>0.32500000000000001</v>
@@ -11421,7 +11424,7 @@
       <c r="D272" s="0"/>
       <c r="E272" s="0"/>
       <c r="F272" s="0" t="s">
-        <v>837</v>
+        <v>847</v>
       </c>
       <c r="G272" s="0" t="b">
         <v>0</v>
@@ -11441,19 +11444,19 @@
         <v>20</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>273</v>
+        <v>225</v>
       </c>
       <c r="C273" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D273" s="0" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="E273" s="0" t="s">
-        <v>561</v>
+        <v>537</v>
       </c>
       <c r="F273" s="0" t="s">
-        <v>838</v>
+        <v>846</v>
       </c>
       <c r="G273" s="0" t="b">
         <v>0</v>
@@ -11466,7 +11469,7 @@
         <v>862</v>
       </c>
       <c r="K273" s="0" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="L273" s="0">
         <v>11</v>
@@ -11477,7 +11480,7 @@
         <v>20</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>274</v>
+        <v>847</v>
       </c>
       <c r="C274" s="0">
         <v>0.32500000000000001</v>
@@ -11485,7 +11488,7 @@
       <c r="D274" s="0"/>
       <c r="E274" s="0"/>
       <c r="F274" s="0" t="s">
-        <v>839</v>
+        <v>847</v>
       </c>
       <c r="G274" s="0" t="b">
         <v>0</v>
@@ -11505,19 +11508,19 @@
         <v>20</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="C275" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D275" s="0" t="s">
-        <v>421</v>
+        <v>390</v>
       </c>
       <c r="E275" s="0" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="F275" s="0" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="G275" s="0" t="b">
         <v>0</v>
@@ -11530,10 +11533,10 @@
         <v>862</v>
       </c>
       <c r="K275" s="0" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="L275" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="276">
@@ -11541,7 +11544,7 @@
         <v>20</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>276</v>
+        <v>847</v>
       </c>
       <c r="C276" s="0">
         <v>0.32500000000000001</v>
@@ -11549,7 +11552,7 @@
       <c r="D276" s="0"/>
       <c r="E276" s="0"/>
       <c r="F276" s="0" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="G276" s="0" t="b">
         <v>0</v>
@@ -11569,19 +11572,19 @@
         <v>20</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>277</v>
+        <v>225</v>
       </c>
       <c r="C277" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D277" s="0" t="s">
-        <v>422</v>
+        <v>394</v>
       </c>
       <c r="E277" s="0" t="s">
-        <v>563</v>
+        <v>535</v>
       </c>
       <c r="F277" s="0" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="G277" s="0" t="b">
         <v>0</v>
@@ -11594,10 +11597,10 @@
         <v>862</v>
       </c>
       <c r="K277" s="0" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="L277" s="0">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="278">
@@ -11605,7 +11608,7 @@
         <v>20</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>278</v>
+        <v>847</v>
       </c>
       <c r="C278" s="0">
         <v>0.32500000000000001</v>
@@ -11613,7 +11616,7 @@
       <c r="D278" s="0"/>
       <c r="E278" s="0"/>
       <c r="F278" s="0" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="G278" s="0" t="b">
         <v>0</v>
@@ -11633,19 +11636,19 @@
         <v>20</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>279</v>
+        <v>225</v>
       </c>
       <c r="C279" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D279" s="0" t="s">
-        <v>423</v>
+        <v>337</v>
       </c>
       <c r="E279" s="0" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="F279" s="0" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="G279" s="0" t="b">
         <v>0</v>
@@ -11658,10 +11661,10 @@
         <v>862</v>
       </c>
       <c r="K279" s="0" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="L279" s="0">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280">
@@ -11669,7 +11672,7 @@
         <v>20</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>280</v>
+        <v>847</v>
       </c>
       <c r="C280" s="0">
         <v>0.32500000000000001</v>
@@ -11677,7 +11680,7 @@
       <c r="D280" s="0"/>
       <c r="E280" s="0"/>
       <c r="F280" s="0" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="G280" s="0" t="b">
         <v>0</v>
@@ -11697,16 +11700,16 @@
         <v>20</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>281</v>
+        <v>225</v>
       </c>
       <c r="C281" s="0">
         <v>1.1499999999999999</v>
       </c>
       <c r="D281" s="0" t="s">
-        <v>424</v>
+        <v>393</v>
       </c>
       <c r="E281" s="0" t="s">
-        <v>565</v>
+        <v>534</v>
       </c>
       <c r="F281" s="0" t="s">
         <v>846</v>
@@ -11722,10 +11725,10 @@
         <v>862</v>
       </c>
       <c r="K281" s="0" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="L281" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="282">
@@ -11733,7 +11736,7 @@
         <v>0</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>282</v>
+        <v>847</v>
       </c>
       <c r="C282" s="0">
         <v>16</v>
